--- a/DOC/結合テスト/EMSM_結合テスト-有給管理（一括作成）.xlsx
+++ b/DOC/結合テスト/EMSM_結合テスト-有給管理（一括作成）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-03\workspace\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566AA930-22E3-44AD-824C-AB90496EC7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE835510-3FAE-48A2-B477-93CCE46F7D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="200">
   <si>
     <t>No</t>
   </si>
@@ -500,17 +500,6 @@
   </si>
   <si>
     <t>No.1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>No.5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>同上</t>
-    <rPh sb="0" eb="2">
-      <t>ドウジョウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -596,41 +585,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>必須_社員ID</t>
-    <rPh sb="3" eb="5">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>必須_年度</t>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>総日数</t>
-    <rPh sb="0" eb="3">
-      <t>ソウニッスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>作成日</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新日</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>更新</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -639,27 +593,6 @@
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>有給管理リストの「検索」あるいは「全量検索」ボタン押す</t>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゼンリョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>当年度をもとに在職全員の有給を
-画面に表示された</t>
-    <rPh sb="12" eb="14">
-      <t>ユウキュウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -681,33 +614,8 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>正常系</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>No.7</t>
-  </si>
-  <si>
-    <t>No.11</t>
-  </si>
-  <si>
-    <t>No.12</t>
-  </si>
-  <si>
     <t>セレクトボックス</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>No.4</t>
-  </si>
-  <si>
-    <t>No.3</t>
-  </si>
-  <si>
-    <t>No.6</t>
-  </si>
-  <si>
-    <t>No.13</t>
   </si>
   <si>
     <t>セレクトボックスのオプションから社員氏名が表示</t>
@@ -732,13 +640,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>同上、かつ、「更新」ボタン押すと、該当ボタン行の社員ID、年度を持ち、有給更新画面へ遷移。</t>
-    <rPh sb="0" eb="2">
-      <t>ドウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>異常系</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -747,48 +648,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>社員IDの情報を表示</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>No.2</t>
-  </si>
-  <si>
-    <t>年度の情報を表示</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>総日数の情報を表示</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>総日数</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ニッスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>作成日の情報を表示</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新日の情報を表示</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>社員１</t>
   </si>
   <si>
@@ -814,10 +673,6 @@
   </si>
   <si>
     <t>社員2</t>
-  </si>
-  <si>
-    <t>No.03</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>nendo</t>
@@ -872,7 +727,55 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>No.05~No.11</t>
+    <t>年度</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「検索」ボタン押す</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「全量検索」ボタン押す</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>当年度をもとに全員の有給を
+画面に表示された</t>
+    <rPh sb="10" eb="12">
+      <t>ユウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「更新」ボタン押す(該当ボタン行の社員ID、当年度を持ち)</t>
+    <rPh sb="22" eb="25">
+      <t>トウネンド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>同上(当年度と一致しない)</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.02</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -882,7 +785,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
-    <numFmt numFmtId="184" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -925,6 +828,7 @@
     <font>
       <sz val="18"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -934,6 +838,7 @@
     <font>
       <sz val="11"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -960,6 +865,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1047,20 +953,24 @@
     <font>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF7F878F"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1071,20 +981,24 @@
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF7F878F"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <u/>
@@ -1109,19 +1023,23 @@
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF7F878F"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1222,7 +1140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1541,19 +1459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1813,7 +1718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1916,13 +1821,13 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1934,7 +1839,7 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1991,7 +1896,7 @@
     <xf numFmtId="49" fontId="28" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2003,10 +1908,10 @@
     <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
@@ -2015,37 +1920,37 @@
     <xf numFmtId="0" fontId="27" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2063,25 +1968,25 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2096,19 +2001,19 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2117,6 +2022,18 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="47" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2174,245 +2091,230 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="38" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2809,16 +2711,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -2826,20 +2728,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="108" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
+      <c r="G16" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2864,58 +2766,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="109" t="s">
+      <c r="G18" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="111"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="115"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="114"/>
+      <c r="G19" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="118"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="117"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="121"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2940,58 +2842,58 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="109" t="s">
+      <c r="G22" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="119"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="123"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="103"/>
+      <c r="G23" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="107"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="106"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="110"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -3219,7 +3121,7 @@
     <row r="2" spans="2:5">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -3243,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="20">
         <v>45440</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3332,10 +3234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY21"/>
+  <dimension ref="A1:BY15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS12" sqref="AS12:BI12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Y19:Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -3427,363 +3329,363 @@
       <c r="BX1" s="30"/>
     </row>
     <row r="2" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
-      <c r="Y2" s="170"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="170"/>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="170"/>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
       <c r="BX2" s="30"/>
     </row>
     <row r="3" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
       <c r="BX3" s="31"/>
     </row>
     <row r="4" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="174" t="s">
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="160" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="162"/>
+      <c r="U4" s="162"/>
+      <c r="V4" s="162"/>
+      <c r="W4" s="162"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="166"/>
+      <c r="AI4" s="166"/>
+      <c r="AJ4" s="166"/>
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="165"/>
+      <c r="AM4" s="165"/>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="165"/>
+      <c r="AT4" s="165"/>
+      <c r="AU4" s="165"/>
+      <c r="AV4" s="165"/>
+      <c r="AW4" s="165"/>
+      <c r="AX4" s="165"/>
+      <c r="AY4" s="165"/>
+      <c r="AZ4" s="165"/>
+      <c r="BA4" s="165"/>
+      <c r="BB4" s="165"/>
+      <c r="BC4" s="166"/>
+      <c r="BD4" s="166"/>
+      <c r="BE4" s="166"/>
+      <c r="BF4" s="165"/>
+      <c r="BG4" s="167"/>
+      <c r="BH4" s="168" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI4" s="169"/>
+      <c r="BJ4" s="170"/>
+      <c r="BK4" s="171">
+        <v>45440</v>
+      </c>
+      <c r="BL4" s="165"/>
+      <c r="BM4" s="165"/>
+      <c r="BN4" s="165"/>
+      <c r="BO4" s="165"/>
+      <c r="BP4" s="165"/>
+      <c r="BQ4" s="168" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR4" s="169"/>
+      <c r="BS4" s="170"/>
+      <c r="BT4" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="176" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="180" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA4" s="181"/>
-      <c r="AB4" s="181"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="181"/>
-      <c r="AE4" s="181"/>
-      <c r="AF4" s="181"/>
-      <c r="AG4" s="181"/>
-      <c r="AH4" s="182"/>
-      <c r="AI4" s="182"/>
-      <c r="AJ4" s="182"/>
-      <c r="AK4" s="181"/>
-      <c r="AL4" s="181"/>
-      <c r="AM4" s="181"/>
-      <c r="AN4" s="181"/>
-      <c r="AO4" s="181"/>
-      <c r="AP4" s="181"/>
-      <c r="AQ4" s="181"/>
-      <c r="AR4" s="181"/>
-      <c r="AS4" s="181"/>
-      <c r="AT4" s="181"/>
-      <c r="AU4" s="181"/>
-      <c r="AV4" s="181"/>
-      <c r="AW4" s="181"/>
-      <c r="AX4" s="181"/>
-      <c r="AY4" s="181"/>
-      <c r="AZ4" s="181"/>
-      <c r="BA4" s="181"/>
-      <c r="BB4" s="181"/>
-      <c r="BC4" s="182"/>
-      <c r="BD4" s="182"/>
-      <c r="BE4" s="182"/>
-      <c r="BF4" s="181"/>
-      <c r="BG4" s="183"/>
-      <c r="BH4" s="184" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI4" s="185"/>
-      <c r="BJ4" s="186"/>
-      <c r="BK4" s="187">
-        <v>45440</v>
-      </c>
-      <c r="BL4" s="181"/>
-      <c r="BM4" s="181"/>
-      <c r="BN4" s="181"/>
-      <c r="BO4" s="181"/>
-      <c r="BP4" s="181"/>
-      <c r="BQ4" s="184" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR4" s="185"/>
-      <c r="BS4" s="186"/>
-      <c r="BT4" s="187" t="s">
-        <v>151</v>
-      </c>
-      <c r="BU4" s="181"/>
-      <c r="BV4" s="181"/>
-      <c r="BW4" s="181"/>
+      <c r="BU4" s="165"/>
+      <c r="BV4" s="165"/>
+      <c r="BW4" s="165"/>
       <c r="BX4" s="32"/>
     </row>
     <row r="5" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="156"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="156" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="157"/>
-      <c r="R5" s="157"/>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="157"/>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="162"/>
-      <c r="AE5" s="162"/>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="162"/>
-      <c r="AM5" s="162"/>
-      <c r="AN5" s="162"/>
-      <c r="AO5" s="162"/>
-      <c r="AP5" s="162"/>
-      <c r="AQ5" s="162"/>
-      <c r="AR5" s="162"/>
-      <c r="AS5" s="162"/>
-      <c r="AT5" s="162"/>
-      <c r="AU5" s="162"/>
-      <c r="AV5" s="162"/>
-      <c r="AW5" s="162"/>
-      <c r="AX5" s="162"/>
-      <c r="AY5" s="162"/>
-      <c r="AZ5" s="162"/>
-      <c r="BA5" s="162"/>
-      <c r="BB5" s="162"/>
-      <c r="BC5" s="162"/>
-      <c r="BD5" s="162"/>
-      <c r="BE5" s="162"/>
-      <c r="BF5" s="162"/>
-      <c r="BG5" s="163"/>
-      <c r="BH5" s="156" t="s">
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="177"/>
+      <c r="AA5" s="178"/>
+      <c r="AB5" s="178"/>
+      <c r="AC5" s="178"/>
+      <c r="AD5" s="178"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="178"/>
+      <c r="AG5" s="178"/>
+      <c r="AH5" s="178"/>
+      <c r="AI5" s="178"/>
+      <c r="AJ5" s="178"/>
+      <c r="AK5" s="178"/>
+      <c r="AL5" s="178"/>
+      <c r="AM5" s="178"/>
+      <c r="AN5" s="178"/>
+      <c r="AO5" s="178"/>
+      <c r="AP5" s="178"/>
+      <c r="AQ5" s="178"/>
+      <c r="AR5" s="178"/>
+      <c r="AS5" s="178"/>
+      <c r="AT5" s="178"/>
+      <c r="AU5" s="178"/>
+      <c r="AV5" s="178"/>
+      <c r="AW5" s="178"/>
+      <c r="AX5" s="178"/>
+      <c r="AY5" s="178"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="178"/>
+      <c r="BB5" s="178"/>
+      <c r="BC5" s="178"/>
+      <c r="BD5" s="178"/>
+      <c r="BE5" s="178"/>
+      <c r="BF5" s="178"/>
+      <c r="BG5" s="179"/>
+      <c r="BH5" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="BI5" s="157"/>
-      <c r="BJ5" s="158"/>
-      <c r="BK5" s="157"/>
-      <c r="BL5" s="157"/>
-      <c r="BM5" s="157"/>
-      <c r="BN5" s="157"/>
-      <c r="BO5" s="157"/>
-      <c r="BP5" s="157"/>
-      <c r="BQ5" s="156" t="s">
+      <c r="BI5" s="173"/>
+      <c r="BJ5" s="174"/>
+      <c r="BK5" s="173"/>
+      <c r="BL5" s="173"/>
+      <c r="BM5" s="173"/>
+      <c r="BN5" s="173"/>
+      <c r="BO5" s="173"/>
+      <c r="BP5" s="173"/>
+      <c r="BQ5" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="BR5" s="157"/>
-      <c r="BS5" s="158"/>
-      <c r="BT5" s="157"/>
-      <c r="BU5" s="162"/>
-      <c r="BV5" s="162"/>
-      <c r="BW5" s="162"/>
+      <c r="BR5" s="173"/>
+      <c r="BS5" s="174"/>
+      <c r="BT5" s="173"/>
+      <c r="BU5" s="178"/>
+      <c r="BV5" s="178"/>
+      <c r="BW5" s="178"/>
       <c r="BX5" s="25"/>
     </row>
     <row r="7" spans="1:77" s="33" customFormat="1">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164" t="s">
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="164"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="136" t="s">
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="194" t="s">
         <v>139</v>
       </c>
-      <c r="T7" s="137"/>
-      <c r="U7" s="137"/>
-      <c r="V7" s="137"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="165" t="s">
+      <c r="T7" s="195"/>
+      <c r="U7" s="195"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="196"/>
+      <c r="X7" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="166"/>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="166"/>
-      <c r="AG7" s="166"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="167"/>
-      <c r="AJ7" s="167"/>
-      <c r="AK7" s="166"/>
-      <c r="AL7" s="166"/>
-      <c r="AM7" s="166"/>
-      <c r="AN7" s="166"/>
-      <c r="AO7" s="166"/>
-      <c r="AP7" s="166"/>
-      <c r="AQ7" s="166"/>
-      <c r="AR7" s="168"/>
-      <c r="AS7" s="165" t="s">
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
+      <c r="AB7" s="182"/>
+      <c r="AC7" s="182"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="182"/>
+      <c r="AH7" s="183"/>
+      <c r="AI7" s="183"/>
+      <c r="AJ7" s="183"/>
+      <c r="AK7" s="182"/>
+      <c r="AL7" s="182"/>
+      <c r="AM7" s="182"/>
+      <c r="AN7" s="182"/>
+      <c r="AO7" s="182"/>
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="182"/>
+      <c r="AR7" s="184"/>
+      <c r="AS7" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="AT7" s="166"/>
-      <c r="AU7" s="166"/>
-      <c r="AV7" s="166"/>
-      <c r="AW7" s="166"/>
-      <c r="AX7" s="166"/>
-      <c r="AY7" s="166"/>
-      <c r="AZ7" s="166"/>
-      <c r="BA7" s="166"/>
-      <c r="BB7" s="166"/>
-      <c r="BC7" s="167"/>
-      <c r="BD7" s="167"/>
-      <c r="BE7" s="167"/>
-      <c r="BF7" s="166"/>
-      <c r="BG7" s="166"/>
-      <c r="BH7" s="166"/>
-      <c r="BI7" s="168"/>
-      <c r="BJ7" s="165" t="s">
+      <c r="AT7" s="182"/>
+      <c r="AU7" s="182"/>
+      <c r="AV7" s="182"/>
+      <c r="AW7" s="182"/>
+      <c r="AX7" s="182"/>
+      <c r="AY7" s="182"/>
+      <c r="AZ7" s="182"/>
+      <c r="BA7" s="182"/>
+      <c r="BB7" s="182"/>
+      <c r="BC7" s="183"/>
+      <c r="BD7" s="183"/>
+      <c r="BE7" s="183"/>
+      <c r="BF7" s="182"/>
+      <c r="BG7" s="182"/>
+      <c r="BH7" s="182"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="BK7" s="166"/>
-      <c r="BL7" s="166"/>
-      <c r="BM7" s="166"/>
-      <c r="BN7" s="166"/>
-      <c r="BO7" s="168"/>
-      <c r="BP7" s="165" t="s">
+      <c r="BK7" s="182"/>
+      <c r="BL7" s="182"/>
+      <c r="BM7" s="182"/>
+      <c r="BN7" s="182"/>
+      <c r="BO7" s="184"/>
+      <c r="BP7" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="BQ7" s="166"/>
-      <c r="BR7" s="166"/>
-      <c r="BS7" s="166"/>
-      <c r="BT7" s="168"/>
-      <c r="BU7" s="165" t="s">
+      <c r="BQ7" s="182"/>
+      <c r="BR7" s="182"/>
+      <c r="BS7" s="182"/>
+      <c r="BT7" s="184"/>
+      <c r="BU7" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="BV7" s="166"/>
-      <c r="BW7" s="166"/>
-      <c r="BX7" s="168"/>
+      <c r="BV7" s="182"/>
+      <c r="BW7" s="182"/>
+      <c r="BX7" s="184"/>
     </row>
     <row r="8" spans="1:77" ht="27" customHeight="1">
-      <c r="A8" s="122"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="123" t="s">
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="125"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="132"/>
       <c r="L8" s="126" t="s">
         <v>142</v>
       </c>
@@ -3793,11 +3695,11 @@
       <c r="P8" s="127"/>
       <c r="Q8" s="127"/>
       <c r="R8" s="128"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="143"/>
       <c r="X8" s="126" t="s">
         <v>138</v>
       </c>
@@ -3838,38 +3740,38 @@
       <c r="BG8" s="127"/>
       <c r="BH8" s="127"/>
       <c r="BI8" s="128"/>
-      <c r="BJ8" s="129"/>
-      <c r="BK8" s="129"/>
-      <c r="BL8" s="129"/>
-      <c r="BM8" s="129"/>
-      <c r="BN8" s="129"/>
-      <c r="BO8" s="130"/>
-      <c r="BP8" s="131"/>
-      <c r="BQ8" s="131"/>
-      <c r="BR8" s="131"/>
-      <c r="BS8" s="131"/>
-      <c r="BT8" s="132"/>
-      <c r="BU8" s="133"/>
-      <c r="BV8" s="134"/>
-      <c r="BW8" s="134"/>
-      <c r="BX8" s="135"/>
+      <c r="BJ8" s="145"/>
+      <c r="BK8" s="145"/>
+      <c r="BL8" s="145"/>
+      <c r="BM8" s="145"/>
+      <c r="BN8" s="145"/>
+      <c r="BO8" s="146"/>
+      <c r="BP8" s="148"/>
+      <c r="BQ8" s="148"/>
+      <c r="BR8" s="148"/>
+      <c r="BS8" s="148"/>
+      <c r="BT8" s="149"/>
+      <c r="BU8" s="188"/>
+      <c r="BV8" s="189"/>
+      <c r="BW8" s="189"/>
+      <c r="BX8" s="190"/>
     </row>
     <row r="9" spans="1:77" ht="27" customHeight="1">
-      <c r="A9" s="122">
+      <c r="A9" s="124">
         <v>1</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="150" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="152"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="187"/>
       <c r="L9" s="126" t="s">
         <v>143</v>
       </c>
@@ -3879,36 +3781,36 @@
       <c r="P9" s="127"/>
       <c r="Q9" s="127"/>
       <c r="R9" s="128"/>
-      <c r="S9" s="139" t="s">
+      <c r="S9" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="T9" s="140"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="126" t="s">
+      <c r="T9" s="142"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="127"/>
-      <c r="AI9" s="127"/>
-      <c r="AJ9" s="127"/>
-      <c r="AK9" s="127"/>
-      <c r="AL9" s="127"/>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="127"/>
-      <c r="AO9" s="127"/>
-      <c r="AP9" s="127"/>
-      <c r="AQ9" s="127"/>
-      <c r="AR9" s="128"/>
+      <c r="Y9" s="131"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="131"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="131"/>
+      <c r="AD9" s="131"/>
+      <c r="AE9" s="131"/>
+      <c r="AF9" s="131"/>
+      <c r="AG9" s="131"/>
+      <c r="AH9" s="131"/>
+      <c r="AI9" s="131"/>
+      <c r="AJ9" s="131"/>
+      <c r="AK9" s="131"/>
+      <c r="AL9" s="131"/>
+      <c r="AM9" s="131"/>
+      <c r="AN9" s="131"/>
+      <c r="AO9" s="131"/>
+      <c r="AP9" s="131"/>
+      <c r="AQ9" s="131"/>
+      <c r="AR9" s="132"/>
       <c r="AS9" s="126" t="s">
         <v>20</v>
       </c>
@@ -3928,60 +3830,58 @@
       <c r="BG9" s="127"/>
       <c r="BH9" s="127"/>
       <c r="BI9" s="128"/>
-      <c r="BJ9" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK9" s="129"/>
-      <c r="BL9" s="129"/>
-      <c r="BM9" s="129"/>
-      <c r="BN9" s="129"/>
-      <c r="BO9" s="130"/>
-      <c r="BP9" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ9" s="131"/>
-      <c r="BR9" s="131"/>
-      <c r="BS9" s="131"/>
-      <c r="BT9" s="132"/>
-      <c r="BU9" s="133"/>
-      <c r="BV9" s="134"/>
-      <c r="BW9" s="134"/>
-      <c r="BX9" s="135"/>
+      <c r="BJ9" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK9" s="145"/>
+      <c r="BL9" s="145"/>
+      <c r="BM9" s="145"/>
+      <c r="BN9" s="145"/>
+      <c r="BO9" s="146"/>
+      <c r="BP9" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ9" s="148"/>
+      <c r="BR9" s="148"/>
+      <c r="BS9" s="148"/>
+      <c r="BT9" s="149"/>
+      <c r="BU9" s="188"/>
+      <c r="BV9" s="189"/>
+      <c r="BW9" s="189"/>
+      <c r="BX9" s="190"/>
     </row>
     <row r="10" spans="1:77" ht="36" customHeight="1">
-      <c r="A10" s="122">
+      <c r="A10" s="124">
         <v>2</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126" t="s">
-        <v>185</v>
-      </c>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="126"/>
       <c r="M10" s="127"/>
       <c r="N10" s="127"/>
       <c r="O10" s="127"/>
       <c r="P10" s="127"/>
       <c r="Q10" s="127"/>
       <c r="R10" s="128"/>
-      <c r="S10" s="139" t="s">
+      <c r="S10" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="T10" s="140"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="141"/>
+      <c r="T10" s="142"/>
+      <c r="U10" s="142"/>
+      <c r="V10" s="142"/>
+      <c r="W10" s="143"/>
       <c r="X10" s="126" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y10" s="127"/>
       <c r="Z10" s="127"/>
@@ -4003,79 +3903,77 @@
       <c r="AP10" s="127"/>
       <c r="AQ10" s="127"/>
       <c r="AR10" s="128"/>
-      <c r="AS10" s="123" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT10" s="124"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="124"/>
-      <c r="AY10" s="124"/>
-      <c r="AZ10" s="124"/>
-      <c r="BA10" s="124"/>
-      <c r="BB10" s="124"/>
-      <c r="BC10" s="124"/>
-      <c r="BD10" s="124"/>
-      <c r="BE10" s="124"/>
-      <c r="BF10" s="124"/>
-      <c r="BG10" s="124"/>
-      <c r="BH10" s="124"/>
-      <c r="BI10" s="125"/>
-      <c r="BJ10" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK10" s="129"/>
-      <c r="BL10" s="129"/>
-      <c r="BM10" s="129"/>
-      <c r="BN10" s="129"/>
-      <c r="BO10" s="130"/>
-      <c r="BP10" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ10" s="131"/>
-      <c r="BR10" s="131"/>
-      <c r="BS10" s="131"/>
-      <c r="BT10" s="132"/>
-      <c r="BU10" s="155"/>
-      <c r="BV10" s="153"/>
-      <c r="BW10" s="153"/>
-      <c r="BX10" s="154"/>
+      <c r="AS10" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT10" s="131"/>
+      <c r="AU10" s="131"/>
+      <c r="AV10" s="131"/>
+      <c r="AW10" s="131"/>
+      <c r="AX10" s="131"/>
+      <c r="AY10" s="131"/>
+      <c r="AZ10" s="131"/>
+      <c r="BA10" s="131"/>
+      <c r="BB10" s="131"/>
+      <c r="BC10" s="131"/>
+      <c r="BD10" s="131"/>
+      <c r="BE10" s="131"/>
+      <c r="BF10" s="131"/>
+      <c r="BG10" s="131"/>
+      <c r="BH10" s="131"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK10" s="145"/>
+      <c r="BL10" s="145"/>
+      <c r="BM10" s="145"/>
+      <c r="BN10" s="145"/>
+      <c r="BO10" s="146"/>
+      <c r="BP10" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ10" s="148"/>
+      <c r="BR10" s="148"/>
+      <c r="BS10" s="148"/>
+      <c r="BT10" s="149"/>
+      <c r="BU10" s="191"/>
+      <c r="BV10" s="192"/>
+      <c r="BW10" s="192"/>
+      <c r="BX10" s="193"/>
     </row>
     <row r="11" spans="1:77" s="82" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A11" s="122">
+      <c r="A11" s="124">
         <v>3</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="144" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="126" t="s">
-        <v>174</v>
-      </c>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="126"/>
       <c r="M11" s="127"/>
       <c r="N11" s="127"/>
       <c r="O11" s="127"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="127"/>
       <c r="R11" s="128"/>
-      <c r="S11" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="141"/>
+      <c r="S11" s="141" t="s">
+        <v>158</v>
+      </c>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="143"/>
       <c r="X11" s="126" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Y11" s="127"/>
       <c r="Z11" s="127"/>
@@ -4097,64 +3995,64 @@
       <c r="AP11" s="127"/>
       <c r="AQ11" s="127"/>
       <c r="AR11" s="128"/>
-      <c r="AS11" s="123" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT11" s="124"/>
-      <c r="AU11" s="124"/>
-      <c r="AV11" s="124"/>
-      <c r="AW11" s="124"/>
-      <c r="AX11" s="124"/>
-      <c r="AY11" s="124"/>
-      <c r="AZ11" s="124"/>
-      <c r="BA11" s="124"/>
-      <c r="BB11" s="124"/>
-      <c r="BC11" s="124"/>
-      <c r="BD11" s="124"/>
-      <c r="BE11" s="124"/>
-      <c r="BF11" s="124"/>
-      <c r="BG11" s="124"/>
-      <c r="BH11" s="124"/>
-      <c r="BI11" s="125"/>
-      <c r="BJ11" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK11" s="129"/>
-      <c r="BL11" s="129"/>
-      <c r="BM11" s="129"/>
-      <c r="BN11" s="129"/>
-      <c r="BO11" s="130"/>
-      <c r="BP11" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ11" s="131"/>
-      <c r="BR11" s="131"/>
-      <c r="BS11" s="131"/>
-      <c r="BT11" s="132"/>
-      <c r="BU11" s="188"/>
-      <c r="BV11" s="189"/>
-      <c r="BW11" s="189"/>
-      <c r="BX11" s="190"/>
+      <c r="AS11" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT11" s="131"/>
+      <c r="AU11" s="131"/>
+      <c r="AV11" s="131"/>
+      <c r="AW11" s="131"/>
+      <c r="AX11" s="131"/>
+      <c r="AY11" s="131"/>
+      <c r="AZ11" s="131"/>
+      <c r="BA11" s="131"/>
+      <c r="BB11" s="131"/>
+      <c r="BC11" s="131"/>
+      <c r="BD11" s="131"/>
+      <c r="BE11" s="131"/>
+      <c r="BF11" s="131"/>
+      <c r="BG11" s="131"/>
+      <c r="BH11" s="131"/>
+      <c r="BI11" s="132"/>
+      <c r="BJ11" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK11" s="145"/>
+      <c r="BL11" s="145"/>
+      <c r="BM11" s="145"/>
+      <c r="BN11" s="145"/>
+      <c r="BO11" s="146"/>
+      <c r="BP11" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ11" s="148"/>
+      <c r="BR11" s="148"/>
+      <c r="BS11" s="148"/>
+      <c r="BT11" s="149"/>
+      <c r="BU11" s="150"/>
+      <c r="BV11" s="151"/>
+      <c r="BW11" s="151"/>
+      <c r="BX11" s="152"/>
       <c r="BY11" s="26"/>
     </row>
     <row r="12" spans="1:77" s="59" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="122">
+      <c r="A12" s="124">
         <v>4</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="142" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="M12" s="127"/>
       <c r="N12" s="127"/>
@@ -4162,15 +4060,15 @@
       <c r="P12" s="127"/>
       <c r="Q12" s="127"/>
       <c r="R12" s="128"/>
-      <c r="S12" s="143" t="s">
+      <c r="S12" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="143"/>
-      <c r="W12" s="143"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
       <c r="X12" s="126" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="Y12" s="127"/>
       <c r="Z12" s="127"/>
@@ -4192,80 +4090,78 @@
       <c r="AP12" s="127"/>
       <c r="AQ12" s="127"/>
       <c r="AR12" s="128"/>
-      <c r="AS12" s="142" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT12" s="142"/>
-      <c r="AU12" s="142"/>
-      <c r="AV12" s="142"/>
-      <c r="AW12" s="142"/>
-      <c r="AX12" s="142"/>
-      <c r="AY12" s="142"/>
-      <c r="AZ12" s="142"/>
-      <c r="BA12" s="142"/>
-      <c r="BB12" s="142"/>
-      <c r="BC12" s="142"/>
-      <c r="BD12" s="142"/>
-      <c r="BE12" s="142"/>
-      <c r="BF12" s="142"/>
-      <c r="BG12" s="142"/>
-      <c r="BH12" s="142"/>
-      <c r="BI12" s="142"/>
-      <c r="BJ12" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK12" s="129"/>
-      <c r="BL12" s="129"/>
-      <c r="BM12" s="129"/>
-      <c r="BN12" s="129"/>
-      <c r="BO12" s="130"/>
-      <c r="BP12" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ12" s="131"/>
-      <c r="BR12" s="131"/>
-      <c r="BS12" s="131"/>
-      <c r="BT12" s="132"/>
-      <c r="BU12" s="120"/>
-      <c r="BV12" s="121"/>
-      <c r="BW12" s="121"/>
-      <c r="BX12" s="121"/>
+      <c r="AS12" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT12" s="125"/>
+      <c r="AU12" s="125"/>
+      <c r="AV12" s="125"/>
+      <c r="AW12" s="125"/>
+      <c r="AX12" s="125"/>
+      <c r="AY12" s="125"/>
+      <c r="AZ12" s="125"/>
+      <c r="BA12" s="125"/>
+      <c r="BB12" s="125"/>
+      <c r="BC12" s="125"/>
+      <c r="BD12" s="125"/>
+      <c r="BE12" s="125"/>
+      <c r="BF12" s="125"/>
+      <c r="BG12" s="125"/>
+      <c r="BH12" s="125"/>
+      <c r="BI12" s="125"/>
+      <c r="BJ12" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK12" s="145"/>
+      <c r="BL12" s="145"/>
+      <c r="BM12" s="145"/>
+      <c r="BN12" s="145"/>
+      <c r="BO12" s="146"/>
+      <c r="BP12" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ12" s="148"/>
+      <c r="BR12" s="148"/>
+      <c r="BS12" s="148"/>
+      <c r="BT12" s="149"/>
+      <c r="BU12" s="136"/>
+      <c r="BV12" s="137"/>
+      <c r="BW12" s="137"/>
+      <c r="BX12" s="137"/>
       <c r="BY12" s="60"/>
     </row>
     <row r="13" spans="1:77" s="82" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A13" s="122">
+      <c r="A13" s="124">
         <v>5</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="144" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="126" t="s">
-        <v>144</v>
-      </c>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="138" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="126"/>
       <c r="M13" s="127"/>
       <c r="N13" s="127"/>
       <c r="O13" s="127"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="127"/>
       <c r="R13" s="128"/>
-      <c r="S13" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="T13" s="140"/>
-      <c r="U13" s="140"/>
-      <c r="V13" s="140"/>
-      <c r="W13" s="141"/>
+      <c r="S13" s="141" t="s">
+        <v>158</v>
+      </c>
+      <c r="T13" s="142"/>
+      <c r="U13" s="142"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="143"/>
       <c r="X13" s="126" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="Y13" s="127"/>
       <c r="Z13" s="127"/>
@@ -4287,175 +4183,171 @@
       <c r="AP13" s="127"/>
       <c r="AQ13" s="127"/>
       <c r="AR13" s="128"/>
-      <c r="AS13" s="123" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT13" s="124"/>
-      <c r="AU13" s="124"/>
-      <c r="AV13" s="124"/>
-      <c r="AW13" s="124"/>
-      <c r="AX13" s="124"/>
-      <c r="AY13" s="124"/>
-      <c r="AZ13" s="124"/>
-      <c r="BA13" s="124"/>
-      <c r="BB13" s="124"/>
-      <c r="BC13" s="124"/>
-      <c r="BD13" s="124"/>
-      <c r="BE13" s="124"/>
-      <c r="BF13" s="124"/>
-      <c r="BG13" s="124"/>
-      <c r="BH13" s="124"/>
-      <c r="BI13" s="125"/>
-      <c r="BJ13" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK13" s="129"/>
-      <c r="BL13" s="129"/>
-      <c r="BM13" s="129"/>
-      <c r="BN13" s="129"/>
-      <c r="BO13" s="130"/>
-      <c r="BP13" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ13" s="131"/>
-      <c r="BR13" s="131"/>
-      <c r="BS13" s="131"/>
-      <c r="BT13" s="132"/>
-      <c r="BU13" s="188"/>
-      <c r="BV13" s="189"/>
-      <c r="BW13" s="189"/>
-      <c r="BX13" s="190"/>
+      <c r="AS13" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT13" s="131"/>
+      <c r="AU13" s="131"/>
+      <c r="AV13" s="131"/>
+      <c r="AW13" s="131"/>
+      <c r="AX13" s="131"/>
+      <c r="AY13" s="131"/>
+      <c r="AZ13" s="131"/>
+      <c r="BA13" s="131"/>
+      <c r="BB13" s="131"/>
+      <c r="BC13" s="131"/>
+      <c r="BD13" s="131"/>
+      <c r="BE13" s="131"/>
+      <c r="BF13" s="131"/>
+      <c r="BG13" s="131"/>
+      <c r="BH13" s="131"/>
+      <c r="BI13" s="132"/>
+      <c r="BJ13" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK13" s="145"/>
+      <c r="BL13" s="145"/>
+      <c r="BM13" s="145"/>
+      <c r="BN13" s="145"/>
+      <c r="BO13" s="146"/>
+      <c r="BP13" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ13" s="148"/>
+      <c r="BR13" s="148"/>
+      <c r="BS13" s="148"/>
+      <c r="BT13" s="149"/>
+      <c r="BU13" s="150"/>
+      <c r="BV13" s="151"/>
+      <c r="BW13" s="151"/>
+      <c r="BX13" s="152"/>
       <c r="BY13" s="26"/>
     </row>
-    <row r="14" spans="1:77" s="82" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A14" s="122">
+    <row r="14" spans="1:77" s="59" customFormat="1" ht="27" customHeight="1">
+      <c r="A14" s="124">
         <v>6</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="126" t="s">
-        <v>175</v>
-      </c>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="126"/>
       <c r="M14" s="127"/>
       <c r="N14" s="127"/>
       <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="127"/>
       <c r="R14" s="128"/>
-      <c r="S14" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="T14" s="140"/>
-      <c r="U14" s="140"/>
-      <c r="V14" s="140"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="126" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="127"/>
-      <c r="AI14" s="127"/>
-      <c r="AJ14" s="127"/>
-      <c r="AK14" s="127"/>
-      <c r="AL14" s="127"/>
-      <c r="AM14" s="127"/>
-      <c r="AN14" s="127"/>
-      <c r="AO14" s="127"/>
-      <c r="AP14" s="127"/>
-      <c r="AQ14" s="127"/>
-      <c r="AR14" s="128"/>
-      <c r="AS14" s="123" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT14" s="124"/>
-      <c r="AU14" s="124"/>
-      <c r="AV14" s="124"/>
-      <c r="AW14" s="124"/>
-      <c r="AX14" s="124"/>
-      <c r="AY14" s="124"/>
-      <c r="AZ14" s="124"/>
-      <c r="BA14" s="124"/>
-      <c r="BB14" s="124"/>
-      <c r="BC14" s="124"/>
-      <c r="BD14" s="124"/>
-      <c r="BE14" s="124"/>
-      <c r="BF14" s="124"/>
-      <c r="BG14" s="124"/>
-      <c r="BH14" s="124"/>
+      <c r="S14" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="130" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="131"/>
+      <c r="AA14" s="131"/>
+      <c r="AB14" s="131"/>
+      <c r="AC14" s="131"/>
+      <c r="AD14" s="131"/>
+      <c r="AE14" s="131"/>
+      <c r="AF14" s="131"/>
+      <c r="AG14" s="131"/>
+      <c r="AH14" s="131"/>
+      <c r="AI14" s="131"/>
+      <c r="AJ14" s="131"/>
+      <c r="AK14" s="131"/>
+      <c r="AL14" s="131"/>
+      <c r="AM14" s="131"/>
+      <c r="AN14" s="131"/>
+      <c r="AO14" s="131"/>
+      <c r="AP14" s="131"/>
+      <c r="AQ14" s="131"/>
+      <c r="AR14" s="132"/>
+      <c r="AS14" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT14" s="125"/>
+      <c r="AU14" s="125"/>
+      <c r="AV14" s="125"/>
+      <c r="AW14" s="125"/>
+      <c r="AX14" s="125"/>
+      <c r="AY14" s="125"/>
+      <c r="AZ14" s="125"/>
+      <c r="BA14" s="125"/>
+      <c r="BB14" s="125"/>
+      <c r="BC14" s="125"/>
+      <c r="BD14" s="125"/>
+      <c r="BE14" s="125"/>
+      <c r="BF14" s="125"/>
+      <c r="BG14" s="125"/>
+      <c r="BH14" s="125"/>
       <c r="BI14" s="125"/>
-      <c r="BJ14" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK14" s="129"/>
-      <c r="BL14" s="129"/>
-      <c r="BM14" s="129"/>
-      <c r="BN14" s="129"/>
-      <c r="BO14" s="130"/>
-      <c r="BP14" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ14" s="131"/>
-      <c r="BR14" s="131"/>
-      <c r="BS14" s="131"/>
-      <c r="BT14" s="132"/>
-      <c r="BU14" s="149"/>
-      <c r="BV14" s="147"/>
-      <c r="BW14" s="147"/>
-      <c r="BX14" s="148"/>
-      <c r="BY14" s="26"/>
-    </row>
-    <row r="15" spans="1:77" s="82" customFormat="1" ht="24" customHeight="1">
-      <c r="A15" s="122">
+      <c r="BJ14" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK14" s="145"/>
+      <c r="BL14" s="145"/>
+      <c r="BM14" s="145"/>
+      <c r="BN14" s="145"/>
+      <c r="BO14" s="146"/>
+      <c r="BP14" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ14" s="148"/>
+      <c r="BR14" s="148"/>
+      <c r="BS14" s="148"/>
+      <c r="BT14" s="149"/>
+      <c r="BU14" s="136"/>
+      <c r="BV14" s="137"/>
+      <c r="BW14" s="137"/>
+      <c r="BX14" s="137"/>
+      <c r="BY14" s="60"/>
+    </row>
+    <row r="15" spans="1:77" s="59" customFormat="1" ht="27" customHeight="1">
+      <c r="A15" s="124">
         <v>7</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="144" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="126" t="s">
-        <v>169</v>
-      </c>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="126"/>
       <c r="M15" s="127"/>
       <c r="N15" s="127"/>
       <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="127"/>
       <c r="R15" s="128"/>
-      <c r="S15" s="139" t="s">
-        <v>168</v>
-      </c>
-      <c r="T15" s="140"/>
-      <c r="U15" s="140"/>
-      <c r="V15" s="140"/>
-      <c r="W15" s="141"/>
+      <c r="S15" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
       <c r="X15" s="126" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="Y15" s="127"/>
       <c r="Z15" s="127"/>
@@ -4477,676 +4369,84 @@
       <c r="AP15" s="127"/>
       <c r="AQ15" s="127"/>
       <c r="AR15" s="128"/>
-      <c r="AS15" s="123" t="s">
-        <v>186</v>
-      </c>
-      <c r="AT15" s="124"/>
-      <c r="AU15" s="124"/>
-      <c r="AV15" s="124"/>
-      <c r="AW15" s="124"/>
-      <c r="AX15" s="124"/>
-      <c r="AY15" s="124"/>
-      <c r="AZ15" s="124"/>
-      <c r="BA15" s="124"/>
-      <c r="BB15" s="124"/>
-      <c r="BC15" s="124"/>
-      <c r="BD15" s="124"/>
-      <c r="BE15" s="124"/>
-      <c r="BF15" s="124"/>
-      <c r="BG15" s="124"/>
-      <c r="BH15" s="124"/>
+      <c r="AS15" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT15" s="125"/>
+      <c r="AU15" s="125"/>
+      <c r="AV15" s="125"/>
+      <c r="AW15" s="125"/>
+      <c r="AX15" s="125"/>
+      <c r="AY15" s="125"/>
+      <c r="AZ15" s="125"/>
+      <c r="BA15" s="125"/>
+      <c r="BB15" s="125"/>
+      <c r="BC15" s="125"/>
+      <c r="BD15" s="125"/>
+      <c r="BE15" s="125"/>
+      <c r="BF15" s="125"/>
+      <c r="BG15" s="125"/>
+      <c r="BH15" s="125"/>
       <c r="BI15" s="125"/>
-      <c r="BJ15" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK15" s="129"/>
-      <c r="BL15" s="129"/>
-      <c r="BM15" s="129"/>
-      <c r="BN15" s="129"/>
-      <c r="BO15" s="130"/>
-      <c r="BP15" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ15" s="131"/>
-      <c r="BR15" s="131"/>
-      <c r="BS15" s="131"/>
-      <c r="BT15" s="132"/>
-      <c r="BU15" s="149"/>
-      <c r="BV15" s="147"/>
-      <c r="BW15" s="147"/>
-      <c r="BX15" s="148"/>
-      <c r="BY15" s="26"/>
-    </row>
-    <row r="16" spans="1:77" s="82" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="122">
-        <v>8</v>
-      </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="144" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="T16" s="140"/>
-      <c r="U16" s="140"/>
-      <c r="V16" s="140"/>
-      <c r="W16" s="141"/>
-      <c r="X16" s="126" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="127"/>
-      <c r="AH16" s="127"/>
-      <c r="AI16" s="127"/>
-      <c r="AJ16" s="127"/>
-      <c r="AK16" s="127"/>
-      <c r="AL16" s="127"/>
-      <c r="AM16" s="127"/>
-      <c r="AN16" s="127"/>
-      <c r="AO16" s="127"/>
-      <c r="AP16" s="127"/>
-      <c r="AQ16" s="127"/>
-      <c r="AR16" s="128"/>
-      <c r="AS16" s="123" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT16" s="124"/>
-      <c r="AU16" s="124"/>
-      <c r="AV16" s="124"/>
-      <c r="AW16" s="124"/>
-      <c r="AX16" s="124"/>
-      <c r="AY16" s="124"/>
-      <c r="AZ16" s="124"/>
-      <c r="BA16" s="124"/>
-      <c r="BB16" s="124"/>
-      <c r="BC16" s="124"/>
-      <c r="BD16" s="124"/>
-      <c r="BE16" s="124"/>
-      <c r="BF16" s="124"/>
-      <c r="BG16" s="124"/>
-      <c r="BH16" s="124"/>
-      <c r="BI16" s="125"/>
-      <c r="BJ16" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK16" s="129"/>
-      <c r="BL16" s="129"/>
-      <c r="BM16" s="129"/>
-      <c r="BN16" s="129"/>
-      <c r="BO16" s="130"/>
-      <c r="BP16" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ16" s="131"/>
-      <c r="BR16" s="131"/>
-      <c r="BS16" s="131"/>
-      <c r="BT16" s="132"/>
-      <c r="BU16" s="149"/>
-      <c r="BV16" s="147"/>
-      <c r="BW16" s="147"/>
-      <c r="BX16" s="148"/>
-      <c r="BY16" s="26"/>
-    </row>
-    <row r="17" spans="1:77" s="82" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A17" s="122">
-        <v>9</v>
-      </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="126" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="T17" s="140"/>
-      <c r="U17" s="140"/>
-      <c r="V17" s="140"/>
-      <c r="W17" s="141"/>
-      <c r="X17" s="126" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="127"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="127"/>
-      <c r="AK17" s="127"/>
-      <c r="AL17" s="127"/>
-      <c r="AM17" s="127"/>
-      <c r="AN17" s="127"/>
-      <c r="AO17" s="127"/>
-      <c r="AP17" s="127"/>
-      <c r="AQ17" s="127"/>
-      <c r="AR17" s="128"/>
-      <c r="AS17" s="123" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT17" s="124"/>
-      <c r="AU17" s="124"/>
-      <c r="AV17" s="124"/>
-      <c r="AW17" s="124"/>
-      <c r="AX17" s="124"/>
-      <c r="AY17" s="124"/>
-      <c r="AZ17" s="124"/>
-      <c r="BA17" s="124"/>
-      <c r="BB17" s="124"/>
-      <c r="BC17" s="124"/>
-      <c r="BD17" s="124"/>
-      <c r="BE17" s="124"/>
-      <c r="BF17" s="124"/>
-      <c r="BG17" s="124"/>
-      <c r="BH17" s="124"/>
-      <c r="BI17" s="125"/>
-      <c r="BJ17" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK17" s="129"/>
-      <c r="BL17" s="129"/>
-      <c r="BM17" s="129"/>
-      <c r="BN17" s="129"/>
-      <c r="BO17" s="130"/>
-      <c r="BP17" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ17" s="131"/>
-      <c r="BR17" s="131"/>
-      <c r="BS17" s="131"/>
-      <c r="BT17" s="132"/>
-      <c r="BU17" s="149"/>
-      <c r="BV17" s="147"/>
-      <c r="BW17" s="147"/>
-      <c r="BX17" s="148"/>
-      <c r="BY17" s="26"/>
-    </row>
-    <row r="18" spans="1:77" s="82" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A18" s="122">
-        <v>10</v>
-      </c>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="144" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="126" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="T18" s="140"/>
-      <c r="U18" s="140"/>
-      <c r="V18" s="140"/>
-      <c r="W18" s="141"/>
-      <c r="X18" s="126" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="127"/>
-      <c r="AG18" s="127"/>
-      <c r="AH18" s="127"/>
-      <c r="AI18" s="127"/>
-      <c r="AJ18" s="127"/>
-      <c r="AK18" s="127"/>
-      <c r="AL18" s="127"/>
-      <c r="AM18" s="127"/>
-      <c r="AN18" s="127"/>
-      <c r="AO18" s="127"/>
-      <c r="AP18" s="127"/>
-      <c r="AQ18" s="127"/>
-      <c r="AR18" s="128"/>
-      <c r="AS18" s="123" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT18" s="124"/>
-      <c r="AU18" s="124"/>
-      <c r="AV18" s="124"/>
-      <c r="AW18" s="124"/>
-      <c r="AX18" s="124"/>
-      <c r="AY18" s="124"/>
-      <c r="AZ18" s="124"/>
-      <c r="BA18" s="124"/>
-      <c r="BB18" s="124"/>
-      <c r="BC18" s="124"/>
-      <c r="BD18" s="124"/>
-      <c r="BE18" s="124"/>
-      <c r="BF18" s="124"/>
-      <c r="BG18" s="124"/>
-      <c r="BH18" s="124"/>
-      <c r="BI18" s="125"/>
-      <c r="BJ18" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK18" s="129"/>
-      <c r="BL18" s="129"/>
-      <c r="BM18" s="129"/>
-      <c r="BN18" s="129"/>
-      <c r="BO18" s="130"/>
-      <c r="BP18" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ18" s="131"/>
-      <c r="BR18" s="131"/>
-      <c r="BS18" s="131"/>
-      <c r="BT18" s="132"/>
-      <c r="BU18" s="149"/>
-      <c r="BV18" s="147"/>
-      <c r="BW18" s="147"/>
-      <c r="BX18" s="148"/>
-      <c r="BY18" s="26"/>
-    </row>
-    <row r="19" spans="1:77" s="82" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A19" s="122">
-        <v>11</v>
-      </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="144" t="s">
+      <c r="BJ15" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="126" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="139" t="s">
-        <v>168</v>
-      </c>
-      <c r="T19" s="140"/>
-      <c r="U19" s="140"/>
-      <c r="V19" s="140"/>
-      <c r="W19" s="141"/>
-      <c r="X19" s="126" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="127"/>
-      <c r="AH19" s="127"/>
-      <c r="AI19" s="127"/>
-      <c r="AJ19" s="127"/>
-      <c r="AK19" s="127"/>
-      <c r="AL19" s="127"/>
-      <c r="AM19" s="127"/>
-      <c r="AN19" s="127"/>
-      <c r="AO19" s="127"/>
-      <c r="AP19" s="127"/>
-      <c r="AQ19" s="127"/>
-      <c r="AR19" s="128"/>
-      <c r="AS19" s="123" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT19" s="124"/>
-      <c r="AU19" s="124"/>
-      <c r="AV19" s="124"/>
-      <c r="AW19" s="124"/>
-      <c r="AX19" s="124"/>
-      <c r="AY19" s="124"/>
-      <c r="AZ19" s="124"/>
-      <c r="BA19" s="124"/>
-      <c r="BB19" s="124"/>
-      <c r="BC19" s="124"/>
-      <c r="BD19" s="124"/>
-      <c r="BE19" s="124"/>
-      <c r="BF19" s="124"/>
-      <c r="BG19" s="124"/>
-      <c r="BH19" s="124"/>
-      <c r="BI19" s="125"/>
-      <c r="BJ19" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK19" s="129"/>
-      <c r="BL19" s="129"/>
-      <c r="BM19" s="129"/>
-      <c r="BN19" s="129"/>
-      <c r="BO19" s="130"/>
-      <c r="BP19" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ19" s="131"/>
-      <c r="BR19" s="131"/>
-      <c r="BS19" s="131"/>
-      <c r="BT19" s="132"/>
-      <c r="BU19" s="149"/>
-      <c r="BV19" s="147"/>
-      <c r="BW19" s="147"/>
-      <c r="BX19" s="148"/>
-      <c r="BY19" s="26"/>
-    </row>
-    <row r="20" spans="1:77" ht="43.5" customHeight="1">
-      <c r="A20" s="122">
-        <v>12</v>
-      </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="142" t="s">
+      <c r="BK15" s="134"/>
+      <c r="BL15" s="134"/>
+      <c r="BM15" s="134"/>
+      <c r="BN15" s="134"/>
+      <c r="BO15" s="135"/>
+      <c r="BP15" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="126" t="s">
-        <v>171</v>
-      </c>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="143" t="s">
-        <v>140</v>
-      </c>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143"/>
-      <c r="X20" s="123" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y20" s="124"/>
-      <c r="Z20" s="124"/>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="124"/>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="124"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="124"/>
-      <c r="AK20" s="124"/>
-      <c r="AL20" s="124"/>
-      <c r="AM20" s="124"/>
-      <c r="AN20" s="124"/>
-      <c r="AO20" s="124"/>
-      <c r="AP20" s="124"/>
-      <c r="AQ20" s="124"/>
-      <c r="AR20" s="125"/>
-      <c r="AS20" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT20" s="142"/>
-      <c r="AU20" s="142"/>
-      <c r="AV20" s="142"/>
-      <c r="AW20" s="142"/>
-      <c r="AX20" s="142"/>
-      <c r="AY20" s="142"/>
-      <c r="AZ20" s="142"/>
-      <c r="BA20" s="142"/>
-      <c r="BB20" s="142"/>
-      <c r="BC20" s="142"/>
-      <c r="BD20" s="142"/>
-      <c r="BE20" s="142"/>
-      <c r="BF20" s="142"/>
-      <c r="BG20" s="142"/>
-      <c r="BH20" s="142"/>
-      <c r="BI20" s="142"/>
-      <c r="BJ20" s="193" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK20" s="194"/>
-      <c r="BL20" s="194"/>
-      <c r="BM20" s="194"/>
-      <c r="BN20" s="194"/>
-      <c r="BO20" s="195"/>
-      <c r="BP20" s="193" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ20" s="194"/>
-      <c r="BR20" s="194"/>
-      <c r="BS20" s="194"/>
-      <c r="BT20" s="195"/>
-      <c r="BU20" s="120"/>
-      <c r="BV20" s="121"/>
-      <c r="BW20" s="121"/>
-      <c r="BX20" s="121"/>
-    </row>
-    <row r="21" spans="1:77" ht="43.5" customHeight="1">
-      <c r="A21" s="122">
-        <v>13</v>
-      </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="142" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="143" t="s">
-        <v>182</v>
-      </c>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="143"/>
-      <c r="W21" s="143"/>
-      <c r="X21" s="123" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="124"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="124"/>
-      <c r="AN21" s="124"/>
-      <c r="AO21" s="124"/>
-      <c r="AP21" s="124"/>
-      <c r="AQ21" s="124"/>
-      <c r="AR21" s="125"/>
-      <c r="AS21" s="142" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT21" s="142"/>
-      <c r="AU21" s="142"/>
-      <c r="AV21" s="142"/>
-      <c r="AW21" s="142"/>
-      <c r="AX21" s="142"/>
-      <c r="AY21" s="142"/>
-      <c r="AZ21" s="142"/>
-      <c r="BA21" s="142"/>
-      <c r="BB21" s="142"/>
-      <c r="BC21" s="142"/>
-      <c r="BD21" s="142"/>
-      <c r="BE21" s="142"/>
-      <c r="BF21" s="142"/>
-      <c r="BG21" s="142"/>
-      <c r="BH21" s="142"/>
-      <c r="BI21" s="142"/>
-      <c r="BJ21" s="193" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK21" s="194"/>
-      <c r="BL21" s="194"/>
-      <c r="BM21" s="194"/>
-      <c r="BN21" s="194"/>
-      <c r="BO21" s="195"/>
-      <c r="BP21" s="193" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ21" s="194"/>
-      <c r="BR21" s="194"/>
-      <c r="BS21" s="194"/>
-      <c r="BT21" s="195"/>
-      <c r="BU21" s="120"/>
-      <c r="BV21" s="121"/>
-      <c r="BW21" s="121"/>
-      <c r="BX21" s="121"/>
+      <c r="BQ15" s="197"/>
+      <c r="BR15" s="197"/>
+      <c r="BS15" s="197"/>
+      <c r="BT15" s="198"/>
+      <c r="BU15" s="136"/>
+      <c r="BV15" s="137"/>
+      <c r="BW15" s="137"/>
+      <c r="BX15" s="137"/>
+      <c r="BY15" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:AR20"/>
-    <mergeCell ref="AS20:BI20"/>
-    <mergeCell ref="BJ20:BO20"/>
-    <mergeCell ref="BP20:BT20"/>
-    <mergeCell ref="BU20:BX20"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="X11:AR11"/>
-    <mergeCell ref="AS11:BI11"/>
-    <mergeCell ref="BJ11:BO11"/>
-    <mergeCell ref="BP11:BT11"/>
-    <mergeCell ref="BU11:BX11"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="A2:AE3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:Y4"/>
-    <mergeCell ref="Z4:BG4"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="BK4:BP4"/>
-    <mergeCell ref="BQ4:BS4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="Z5:BG5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="BK5:BP5"/>
-    <mergeCell ref="BQ5:BS5"/>
-    <mergeCell ref="BT5:BW5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="X7:AR7"/>
-    <mergeCell ref="AS7:BI7"/>
-    <mergeCell ref="BJ7:BO7"/>
-    <mergeCell ref="BP7:BT7"/>
-    <mergeCell ref="BU7:BX7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="X9:AR9"/>
-    <mergeCell ref="AS9:BI9"/>
-    <mergeCell ref="BJ9:BO9"/>
-    <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BU9:BX9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="X10:AR10"/>
-    <mergeCell ref="AS10:BI10"/>
-    <mergeCell ref="BJ10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
+  <mergeCells count="98">
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="BJ15:BO15"/>
+    <mergeCell ref="BP15:BT15"/>
+    <mergeCell ref="BU15:BX15"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="X8:AR8"/>
+    <mergeCell ref="AS8:BI8"/>
+    <mergeCell ref="BJ8:BO8"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="BU8:BX8"/>
+    <mergeCell ref="X15:AR15"/>
+    <mergeCell ref="AS15:BI15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="X14:AR14"/>
+    <mergeCell ref="AS14:BI14"/>
+    <mergeCell ref="BJ14:BO14"/>
+    <mergeCell ref="BP14:BT14"/>
+    <mergeCell ref="BU14:BX14"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X12:AR12"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="AS12:BI12"/>
+    <mergeCell ref="BJ12:BO12"/>
+    <mergeCell ref="BP12:BT12"/>
+    <mergeCell ref="BU12:BX12"/>
     <mergeCell ref="BU10:BX10"/>
     <mergeCell ref="S9:W9"/>
     <mergeCell ref="S10:W10"/>
@@ -5160,85 +4460,55 @@
     <mergeCell ref="BU13:BX13"/>
     <mergeCell ref="S12:W12"/>
     <mergeCell ref="S13:W13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="AS12:BI12"/>
-    <mergeCell ref="BJ12:BO12"/>
-    <mergeCell ref="BP12:BT12"/>
-    <mergeCell ref="BU12:BX12"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="X17:AR17"/>
-    <mergeCell ref="AS17:BI17"/>
-    <mergeCell ref="BJ17:BO17"/>
-    <mergeCell ref="BP17:BT17"/>
-    <mergeCell ref="BU17:BX17"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="X14:AR14"/>
-    <mergeCell ref="AS14:BI14"/>
-    <mergeCell ref="BJ14:BO14"/>
-    <mergeCell ref="BP14:BT14"/>
-    <mergeCell ref="BU14:BX14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="X15:AR15"/>
-    <mergeCell ref="AS15:BI15"/>
-    <mergeCell ref="BJ15:BO15"/>
-    <mergeCell ref="BP15:BT15"/>
-    <mergeCell ref="BU15:BX15"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X12:AR12"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:AR21"/>
-    <mergeCell ref="AS21:BI21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="X18:AR18"/>
-    <mergeCell ref="AS18:BI18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="X19:AR19"/>
-    <mergeCell ref="AS19:BI19"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="BJ21:BO21"/>
-    <mergeCell ref="BP21:BT21"/>
-    <mergeCell ref="BU21:BX21"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="X8:AR8"/>
-    <mergeCell ref="AS8:BI8"/>
-    <mergeCell ref="BJ8:BO8"/>
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="BU8:BX8"/>
-    <mergeCell ref="BJ18:BO18"/>
-    <mergeCell ref="BP18:BT18"/>
-    <mergeCell ref="BU18:BX18"/>
-    <mergeCell ref="BJ19:BO19"/>
-    <mergeCell ref="BP19:BT19"/>
-    <mergeCell ref="BU19:BX19"/>
-    <mergeCell ref="X16:AR16"/>
-    <mergeCell ref="AS16:BI16"/>
-    <mergeCell ref="BJ16:BO16"/>
-    <mergeCell ref="BP16:BT16"/>
-    <mergeCell ref="BU16:BX16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="BU7:BX7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="X9:AR9"/>
+    <mergeCell ref="AS9:BI9"/>
+    <mergeCell ref="BJ9:BO9"/>
+    <mergeCell ref="BP9:BT9"/>
+    <mergeCell ref="BU9:BX9"/>
+    <mergeCell ref="BQ4:BS4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="Z5:BG5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="BK5:BP5"/>
+    <mergeCell ref="BQ5:BS5"/>
+    <mergeCell ref="BT5:BW5"/>
+    <mergeCell ref="A2:AE3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="Z4:BG4"/>
+    <mergeCell ref="BH4:BJ4"/>
+    <mergeCell ref="BK4:BP4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="X7:AR7"/>
+    <mergeCell ref="AS7:BI7"/>
+    <mergeCell ref="BJ7:BO7"/>
+    <mergeCell ref="BP7:BT7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="X10:AR10"/>
+    <mergeCell ref="AS10:BI10"/>
+    <mergeCell ref="BJ10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="X11:AR11"/>
+    <mergeCell ref="AS11:BI11"/>
+    <mergeCell ref="BJ11:BO11"/>
+    <mergeCell ref="BP11:BT11"/>
+    <mergeCell ref="BU11:BX11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5250,8 +4520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AH52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
@@ -5260,16 +4530,16 @@
     <col min="2" max="2" width="11.8984375" style="35" customWidth="1"/>
     <col min="3" max="3" width="9.59765625" style="35"/>
     <col min="4" max="4" width="15.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="10" style="35" customWidth="1"/>
-    <col min="7" max="7" width="11" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.09765625" style="35" customWidth="1"/>
     <col min="8" max="8" width="10.59765625" style="35" customWidth="1"/>
     <col min="9" max="9" width="12" style="35" customWidth="1"/>
-    <col min="10" max="10" width="10" style="35" customWidth="1"/>
+    <col min="10" max="10" width="11.796875" style="35" customWidth="1"/>
     <col min="11" max="11" width="11.3984375" style="35" customWidth="1"/>
     <col min="12" max="12" width="11.19921875" style="35" customWidth="1"/>
-    <col min="13" max="13" width="8.3984375" style="35" customWidth="1"/>
-    <col min="14" max="14" width="7.8984375" style="35" customWidth="1"/>
+    <col min="13" max="13" width="9.09765625" style="35" customWidth="1"/>
+    <col min="14" max="14" width="12.796875" style="35" customWidth="1"/>
     <col min="15" max="15" width="9.59765625" style="35"/>
     <col min="16" max="16" width="25.59765625" style="35" customWidth="1"/>
     <col min="17" max="18" width="12.5" style="35" customWidth="1"/>
@@ -5288,55 +4558,55 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="36">
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="196" t="s">
+      <c r="C3" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="196" t="s">
+      <c r="D3" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="196" t="s">
+      <c r="E3" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="196" t="s">
+      <c r="F3" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="196" t="s">
+      <c r="G3" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="196" t="s">
+      <c r="H3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="196" t="s">
+      <c r="I3" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="196" t="s">
+      <c r="J3" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="196" t="s">
+      <c r="K3" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="196" t="s">
+      <c r="L3" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="196" t="s">
+      <c r="M3" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="196" t="s">
+      <c r="N3" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="196" t="s">
+      <c r="O3" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="196" t="s">
+      <c r="P3" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="196" t="s">
+      <c r="Q3" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="196" t="s">
+      <c r="R3" s="101" t="s">
         <v>37</v>
       </c>
       <c r="S3" s="34"/>
@@ -5345,112 +4615,112 @@
       <c r="A4" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="197" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="197" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="197" t="s">
+      <c r="C4" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="197" t="s">
+      <c r="G4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="198">
+      <c r="H4" s="103">
         <v>37914</v>
       </c>
-      <c r="I4" s="197" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="197" t="s">
-        <v>194</v>
-      </c>
-      <c r="K4" s="197" t="s">
+      <c r="I4" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="197" t="s">
-        <v>195</v>
-      </c>
-      <c r="M4" s="197" t="s">
-        <v>196</v>
-      </c>
-      <c r="N4" s="197" t="s">
-        <v>197</v>
-      </c>
-      <c r="O4" s="197" t="s">
+      <c r="L4" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="197" t="s">
+      <c r="P4" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="197" t="s">
-        <v>198</v>
-      </c>
-      <c r="R4" s="197" t="s">
-        <v>198</v>
+      <c r="Q4" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" s="102" t="s">
+        <v>173</v>
       </c>
       <c r="S4" s="36"/>
     </row>
     <row r="5" spans="1:34" ht="18">
       <c r="A5" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="197" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="197" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="197" t="s">
+      <c r="C5" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="197" t="s">
+      <c r="F5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="197" t="s">
+      <c r="G5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="198">
+      <c r="H5" s="103">
         <v>31413</v>
       </c>
-      <c r="I5" s="197" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="197" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="197" t="s">
+      <c r="I5" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="197" t="s">
-        <v>195</v>
-      </c>
-      <c r="M5" s="197" t="s">
-        <v>196</v>
-      </c>
-      <c r="N5" s="197" t="s">
-        <v>197</v>
-      </c>
-      <c r="O5" s="197" t="s">
+      <c r="L5" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="O5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="197" t="s">
+      <c r="P5" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="199" t="s">
+      <c r="Q5" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="199" t="s">
+      <c r="R5" s="104" t="s">
         <v>58</v>
       </c>
       <c r="S5" s="36"/>
@@ -5460,7 +4730,7 @@
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1">
       <c r="B7" s="93" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="93"/>
@@ -5497,22 +4767,22 @@
     </row>
     <row r="8" spans="1:34" ht="36">
       <c r="A8" s="41"/>
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="196" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="196" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="196" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="196" t="s">
+      <c r="C8" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="196" t="s">
+      <c r="G8" s="101" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="42"/>
@@ -5544,58 +4814,58 @@
       <c r="A9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="197" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="197" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="197" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="197" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="197" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" s="198"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="197"/>
+      <c r="C9" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="103"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
       <c r="S9" s="36"/>
     </row>
     <row r="10" spans="1:34" ht="18">
       <c r="A10" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="197" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="197" t="s">
-        <v>209</v>
-      </c>
-      <c r="F10" s="197" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="197" t="s">
-        <v>211</v>
+      <c r="D10" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="102" t="s">
+        <v>185</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="44"/>
@@ -5624,23 +4894,23 @@
     </row>
     <row r="11" spans="1:34" ht="18">
       <c r="A11" s="96"/>
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="197" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="197" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="197" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" s="197" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="197" t="s">
-        <v>213</v>
+      <c r="C11" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="102" t="s">
+        <v>187</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="44"/>
@@ -5669,23 +4939,23 @@
     </row>
     <row r="12" spans="1:34" ht="18">
       <c r="A12" s="96"/>
-      <c r="B12" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="197" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="197" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="197" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="197" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="197" t="s">
-        <v>213</v>
+      <c r="B12" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>187</v>
       </c>
       <c r="H12" s="43"/>
       <c r="I12" s="44"/>

--- a/DOC/結合テスト/EMSM_結合テスト-有給管理（一括作成）.xlsx
+++ b/DOC/結合テスト/EMSM_結合テスト-有給管理（一括作成）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-03\workspace\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE835510-3FAE-48A2-B477-93CCE46F7D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13DD59D-8614-4C47-B6B8-4845AE94342C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3237,7 +3237,7 @@
   <dimension ref="A1:BY15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Y19:Z19"/>
+      <selection activeCell="AS13" sqref="AS13:BI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>

--- a/DOC/結合テスト/EMSM_結合テスト-有給管理（一括作成）.xlsx
+++ b/DOC/結合テスト/EMSM_結合テスト-有給管理（一括作成）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-03\workspace\emsm\DOC\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13DD59D-8614-4C47-B6B8-4845AE94342C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353453CB-1551-40F2-9E48-8E449EADC393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="227">
   <si>
     <t>No</t>
   </si>
@@ -778,6 +778,223 @@
     <t>No.02</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>対象社員</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストデータのNo.01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E003</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員のセレクトボックスのプルダウンメニューボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E001</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E002</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeID=E001、E002のみプルダウンメニューに表示される</t>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>条件検索</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員にE002を選択し、「検索」ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストデータのNo.02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nendo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeIDE002、nendo=2024のみのデータが一覧に表示される」</t>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全量検索</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.03</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.02、No.03</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストデータのNo.03</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「全量検索」ボタンをクリック</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeIDE001、IDE002、nendo=2024のみのデータが一覧に表示される」</t>
+    <rPh sb="39" eb="41">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストデータのNo.04</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.03、No.04</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①「全量検索」して、employeeID=E001　行の「更新」ボタンをクリック
+②「有給更新」画面にて、利用済項目に　テストデータと違う日付を入力して、「登録」ボタンをクリック</t>
+    <rPh sb="2" eb="4">
+      <t>ゼンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>usedDay</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>yukyuテブールのemployeeID=E001、nendo=2024レコードのusedDayカラムに「有給更新」画面に入力したデータと同じ</t>
+    <rPh sb="53" eb="55">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +1004,7 @@
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,7 +1045,6 @@
     <font>
       <sz val="18"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -838,7 +1054,6 @@
     <font>
       <sz val="11"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -865,7 +1080,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -953,24 +1167,20 @@
     <font>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF7F878F"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -981,24 +1191,20 @@
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF7F878F"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <u/>
@@ -1023,23 +1229,19 @@
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF7F878F"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1087,6 +1289,63 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Klee One SemiBold"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1718,7 +1977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2091,47 +2350,107 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2142,33 +2461,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2178,6 +2470,63 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2214,107 +2563,122 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="54" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2605,12 +2969,12 @@
       <selection activeCell="G22" sqref="G22:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.19921875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.19921875" style="11"/>
-    <col min="22" max="22" width="5.19921875" style="15"/>
-    <col min="23" max="23" width="5.19921875" style="11"/>
-    <col min="24" max="16384" width="5.19921875" style="15"/>
+    <col min="1" max="21" width="5.25" style="11"/>
+    <col min="22" max="22" width="5.25" style="15"/>
+    <col min="23" max="23" width="5.25" style="11"/>
+    <col min="24" max="16384" width="5.25" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1">
@@ -2688,7 +3052,7 @@
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="14" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A14" s="5"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2744,7 +3108,7 @@
       <c r="R16" s="112"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="17" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A17" s="5"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -2762,7 +3126,7 @@
       <c r="R17" s="8"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="18" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -2782,7 +3146,7 @@
       <c r="R18" s="115"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="19" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -2802,7 +3166,7 @@
       <c r="R19" s="118"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="20" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -2820,7 +3184,7 @@
       <c r="R20" s="121"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="21" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A21" s="5"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2858,7 +3222,7 @@
       <c r="R22" s="123"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2878,7 +3242,7 @@
       <c r="R23" s="107"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2896,7 +3260,7 @@
       <c r="R24" s="110"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="25" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A25" s="5"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2914,7 +3278,7 @@
       <c r="R25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.2">
+    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.5">
       <c r="A26" s="5"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -3108,14 +3472,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="16" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="58.59765625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.19921875" style="16"/>
+    <col min="3" max="3" width="58.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.25" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -3234,20 +3598,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY15"/>
+  <dimension ref="A1:BY29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS13" sqref="AS13:BI13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="20" width="2.09765625" style="26" customWidth="1"/>
-    <col min="21" max="21" width="2.09765625" style="95" customWidth="1"/>
-    <col min="22" max="72" width="2.09765625" style="26" customWidth="1"/>
-    <col min="73" max="76" width="2.3984375" style="26" customWidth="1"/>
-    <col min="77" max="77" width="2.09765625" style="26" customWidth="1"/>
-    <col min="78" max="16384" width="9.59765625" style="26"/>
+    <col min="1" max="20" width="2.125" style="26" customWidth="1"/>
+    <col min="21" max="21" width="2.125" style="95" customWidth="1"/>
+    <col min="22" max="72" width="2.125" style="26" customWidth="1"/>
+    <col min="73" max="76" width="2.375" style="26" customWidth="1"/>
+    <col min="77" max="77" width="2.125" style="26" customWidth="1"/>
+    <col min="78" max="16384" width="9.625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
@@ -3329,1088 +3693,1590 @@
       <c r="BX1" s="30"/>
     </row>
     <row r="2" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="184"/>
+      <c r="AD2" s="184"/>
+      <c r="AE2" s="184"/>
       <c r="BX2" s="30"/>
     </row>
     <row r="3" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="154"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="184"/>
+      <c r="AE3" s="184"/>
       <c r="BX3" s="31"/>
     </row>
     <row r="4" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="158" t="s">
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="160" t="s">
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="189"/>
+      <c r="O4" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
-      <c r="U4" s="162"/>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="164" t="s">
+      <c r="P4" s="191"/>
+      <c r="Q4" s="191"/>
+      <c r="R4" s="191"/>
+      <c r="S4" s="192"/>
+      <c r="T4" s="192"/>
+      <c r="U4" s="192"/>
+      <c r="V4" s="192"/>
+      <c r="W4" s="192"/>
+      <c r="X4" s="191"/>
+      <c r="Y4" s="193"/>
+      <c r="Z4" s="194" t="s">
         <v>147</v>
       </c>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="165"/>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="166"/>
-      <c r="AI4" s="166"/>
-      <c r="AJ4" s="166"/>
-      <c r="AK4" s="165"/>
-      <c r="AL4" s="165"/>
-      <c r="AM4" s="165"/>
-      <c r="AN4" s="165"/>
-      <c r="AO4" s="165"/>
-      <c r="AP4" s="165"/>
-      <c r="AQ4" s="165"/>
-      <c r="AR4" s="165"/>
-      <c r="AS4" s="165"/>
-      <c r="AT4" s="165"/>
-      <c r="AU4" s="165"/>
-      <c r="AV4" s="165"/>
-      <c r="AW4" s="165"/>
-      <c r="AX4" s="165"/>
-      <c r="AY4" s="165"/>
-      <c r="AZ4" s="165"/>
-      <c r="BA4" s="165"/>
-      <c r="BB4" s="165"/>
-      <c r="BC4" s="166"/>
-      <c r="BD4" s="166"/>
-      <c r="BE4" s="166"/>
-      <c r="BF4" s="165"/>
-      <c r="BG4" s="167"/>
-      <c r="BH4" s="168" t="s">
+      <c r="AA4" s="174"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="174"/>
+      <c r="AE4" s="174"/>
+      <c r="AF4" s="174"/>
+      <c r="AG4" s="174"/>
+      <c r="AH4" s="195"/>
+      <c r="AI4" s="195"/>
+      <c r="AJ4" s="195"/>
+      <c r="AK4" s="174"/>
+      <c r="AL4" s="174"/>
+      <c r="AM4" s="174"/>
+      <c r="AN4" s="174"/>
+      <c r="AO4" s="174"/>
+      <c r="AP4" s="174"/>
+      <c r="AQ4" s="174"/>
+      <c r="AR4" s="174"/>
+      <c r="AS4" s="174"/>
+      <c r="AT4" s="174"/>
+      <c r="AU4" s="174"/>
+      <c r="AV4" s="174"/>
+      <c r="AW4" s="174"/>
+      <c r="AX4" s="174"/>
+      <c r="AY4" s="174"/>
+      <c r="AZ4" s="174"/>
+      <c r="BA4" s="174"/>
+      <c r="BB4" s="174"/>
+      <c r="BC4" s="195"/>
+      <c r="BD4" s="195"/>
+      <c r="BE4" s="195"/>
+      <c r="BF4" s="174"/>
+      <c r="BG4" s="196"/>
+      <c r="BH4" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="BI4" s="169"/>
-      <c r="BJ4" s="170"/>
-      <c r="BK4" s="171">
+      <c r="BI4" s="171"/>
+      <c r="BJ4" s="172"/>
+      <c r="BK4" s="173">
         <v>45440</v>
       </c>
-      <c r="BL4" s="165"/>
-      <c r="BM4" s="165"/>
-      <c r="BN4" s="165"/>
-      <c r="BO4" s="165"/>
-      <c r="BP4" s="165"/>
-      <c r="BQ4" s="168" t="s">
+      <c r="BL4" s="174"/>
+      <c r="BM4" s="174"/>
+      <c r="BN4" s="174"/>
+      <c r="BO4" s="174"/>
+      <c r="BP4" s="174"/>
+      <c r="BQ4" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="BR4" s="169"/>
-      <c r="BS4" s="170"/>
-      <c r="BT4" s="171" t="s">
+      <c r="BR4" s="171"/>
+      <c r="BS4" s="172"/>
+      <c r="BT4" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BU4" s="165"/>
-      <c r="BV4" s="165"/>
-      <c r="BW4" s="165"/>
+      <c r="BU4" s="174"/>
+      <c r="BV4" s="174"/>
+      <c r="BW4" s="174"/>
       <c r="BX4" s="32"/>
     </row>
     <row r="5" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="172"/>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="172" t="s">
+      <c r="A5" s="175"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="177"/>
-      <c r="AA5" s="178"/>
-      <c r="AB5" s="178"/>
-      <c r="AC5" s="178"/>
-      <c r="AD5" s="178"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="178"/>
-      <c r="AG5" s="178"/>
-      <c r="AH5" s="178"/>
-      <c r="AI5" s="178"/>
-      <c r="AJ5" s="178"/>
-      <c r="AK5" s="178"/>
-      <c r="AL5" s="178"/>
-      <c r="AM5" s="178"/>
-      <c r="AN5" s="178"/>
-      <c r="AO5" s="178"/>
-      <c r="AP5" s="178"/>
-      <c r="AQ5" s="178"/>
-      <c r="AR5" s="178"/>
-      <c r="AS5" s="178"/>
-      <c r="AT5" s="178"/>
-      <c r="AU5" s="178"/>
-      <c r="AV5" s="178"/>
-      <c r="AW5" s="178"/>
-      <c r="AX5" s="178"/>
-      <c r="AY5" s="178"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="178"/>
-      <c r="BB5" s="178"/>
-      <c r="BC5" s="178"/>
-      <c r="BD5" s="178"/>
-      <c r="BE5" s="178"/>
-      <c r="BF5" s="178"/>
-      <c r="BG5" s="179"/>
-      <c r="BH5" s="172" t="s">
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="176"/>
+      <c r="Y5" s="177"/>
+      <c r="Z5" s="180"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="181"/>
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="181"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="181"/>
+      <c r="AM5" s="181"/>
+      <c r="AN5" s="181"/>
+      <c r="AO5" s="181"/>
+      <c r="AP5" s="181"/>
+      <c r="AQ5" s="181"/>
+      <c r="AR5" s="181"/>
+      <c r="AS5" s="181"/>
+      <c r="AT5" s="181"/>
+      <c r="AU5" s="181"/>
+      <c r="AV5" s="181"/>
+      <c r="AW5" s="181"/>
+      <c r="AX5" s="181"/>
+      <c r="AY5" s="181"/>
+      <c r="AZ5" s="181"/>
+      <c r="BA5" s="181"/>
+      <c r="BB5" s="181"/>
+      <c r="BC5" s="181"/>
+      <c r="BD5" s="181"/>
+      <c r="BE5" s="181"/>
+      <c r="BF5" s="181"/>
+      <c r="BG5" s="182"/>
+      <c r="BH5" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="BI5" s="173"/>
-      <c r="BJ5" s="174"/>
-      <c r="BK5" s="173"/>
-      <c r="BL5" s="173"/>
-      <c r="BM5" s="173"/>
-      <c r="BN5" s="173"/>
-      <c r="BO5" s="173"/>
-      <c r="BP5" s="173"/>
-      <c r="BQ5" s="172" t="s">
+      <c r="BI5" s="176"/>
+      <c r="BJ5" s="177"/>
+      <c r="BK5" s="176"/>
+      <c r="BL5" s="176"/>
+      <c r="BM5" s="176"/>
+      <c r="BN5" s="176"/>
+      <c r="BO5" s="176"/>
+      <c r="BP5" s="176"/>
+      <c r="BQ5" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="BR5" s="173"/>
-      <c r="BS5" s="174"/>
-      <c r="BT5" s="173"/>
-      <c r="BU5" s="178"/>
-      <c r="BV5" s="178"/>
-      <c r="BW5" s="178"/>
+      <c r="BR5" s="176"/>
+      <c r="BS5" s="177"/>
+      <c r="BT5" s="176"/>
+      <c r="BU5" s="181"/>
+      <c r="BV5" s="181"/>
+      <c r="BW5" s="181"/>
       <c r="BX5" s="25"/>
     </row>
     <row r="7" spans="1:77" s="33" customFormat="1">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180" t="s">
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180" t="s">
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="194" t="s">
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
+      <c r="P7" s="197"/>
+      <c r="Q7" s="197"/>
+      <c r="R7" s="197"/>
+      <c r="S7" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="T7" s="195"/>
-      <c r="U7" s="195"/>
-      <c r="V7" s="195"/>
-      <c r="W7" s="196"/>
-      <c r="X7" s="181" t="s">
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="182"/>
-      <c r="Z7" s="182"/>
-      <c r="AA7" s="182"/>
-      <c r="AB7" s="182"/>
-      <c r="AC7" s="182"/>
-      <c r="AD7" s="182"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="182"/>
-      <c r="AG7" s="182"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="182"/>
-      <c r="AL7" s="182"/>
-      <c r="AM7" s="182"/>
-      <c r="AN7" s="182"/>
-      <c r="AO7" s="182"/>
-      <c r="AP7" s="182"/>
-      <c r="AQ7" s="182"/>
-      <c r="AR7" s="184"/>
-      <c r="AS7" s="181" t="s">
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="198"/>
+      <c r="AI7" s="198"/>
+      <c r="AJ7" s="198"/>
+      <c r="AK7" s="165"/>
+      <c r="AL7" s="165"/>
+      <c r="AM7" s="165"/>
+      <c r="AN7" s="165"/>
+      <c r="AO7" s="165"/>
+      <c r="AP7" s="165"/>
+      <c r="AQ7" s="165"/>
+      <c r="AR7" s="166"/>
+      <c r="AS7" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="AT7" s="182"/>
-      <c r="AU7" s="182"/>
-      <c r="AV7" s="182"/>
-      <c r="AW7" s="182"/>
-      <c r="AX7" s="182"/>
-      <c r="AY7" s="182"/>
-      <c r="AZ7" s="182"/>
-      <c r="BA7" s="182"/>
-      <c r="BB7" s="182"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="182"/>
-      <c r="BG7" s="182"/>
-      <c r="BH7" s="182"/>
-      <c r="BI7" s="184"/>
-      <c r="BJ7" s="181" t="s">
+      <c r="AT7" s="165"/>
+      <c r="AU7" s="165"/>
+      <c r="AV7" s="165"/>
+      <c r="AW7" s="165"/>
+      <c r="AX7" s="165"/>
+      <c r="AY7" s="165"/>
+      <c r="AZ7" s="165"/>
+      <c r="BA7" s="165"/>
+      <c r="BB7" s="165"/>
+      <c r="BC7" s="198"/>
+      <c r="BD7" s="198"/>
+      <c r="BE7" s="198"/>
+      <c r="BF7" s="165"/>
+      <c r="BG7" s="165"/>
+      <c r="BH7" s="165"/>
+      <c r="BI7" s="166"/>
+      <c r="BJ7" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="BK7" s="182"/>
-      <c r="BL7" s="182"/>
-      <c r="BM7" s="182"/>
-      <c r="BN7" s="182"/>
-      <c r="BO7" s="184"/>
-      <c r="BP7" s="181" t="s">
+      <c r="BK7" s="165"/>
+      <c r="BL7" s="165"/>
+      <c r="BM7" s="165"/>
+      <c r="BN7" s="165"/>
+      <c r="BO7" s="166"/>
+      <c r="BP7" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="BQ7" s="182"/>
-      <c r="BR7" s="182"/>
-      <c r="BS7" s="182"/>
-      <c r="BT7" s="184"/>
-      <c r="BU7" s="181" t="s">
+      <c r="BQ7" s="165"/>
+      <c r="BR7" s="165"/>
+      <c r="BS7" s="165"/>
+      <c r="BT7" s="166"/>
+      <c r="BU7" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="BV7" s="182"/>
-      <c r="BW7" s="182"/>
-      <c r="BX7" s="184"/>
+      <c r="BV7" s="165"/>
+      <c r="BW7" s="165"/>
+      <c r="BX7" s="166"/>
     </row>
     <row r="8" spans="1:77" ht="27" customHeight="1">
-      <c r="A8" s="124"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="130" t="s">
+      <c r="A8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="126" t="s">
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="126" t="s">
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="127"/>
-      <c r="AI8" s="127"/>
-      <c r="AJ8" s="127"/>
-      <c r="AK8" s="127"/>
-      <c r="AL8" s="127"/>
-      <c r="AM8" s="127"/>
-      <c r="AN8" s="127"/>
-      <c r="AO8" s="127"/>
-      <c r="AP8" s="127"/>
-      <c r="AQ8" s="127"/>
-      <c r="AR8" s="128"/>
-      <c r="AS8" s="126"/>
-      <c r="AT8" s="127"/>
-      <c r="AU8" s="127"/>
-      <c r="AV8" s="127"/>
-      <c r="AW8" s="127"/>
-      <c r="AX8" s="127"/>
-      <c r="AY8" s="127"/>
-      <c r="AZ8" s="127"/>
-      <c r="BA8" s="127"/>
-      <c r="BB8" s="127"/>
-      <c r="BC8" s="127"/>
-      <c r="BD8" s="127"/>
-      <c r="BE8" s="127"/>
-      <c r="BF8" s="127"/>
-      <c r="BG8" s="127"/>
-      <c r="BH8" s="127"/>
-      <c r="BI8" s="128"/>
-      <c r="BJ8" s="145"/>
-      <c r="BK8" s="145"/>
-      <c r="BL8" s="145"/>
-      <c r="BM8" s="145"/>
-      <c r="BN8" s="145"/>
-      <c r="BO8" s="146"/>
-      <c r="BP8" s="148"/>
-      <c r="BQ8" s="148"/>
-      <c r="BR8" s="148"/>
-      <c r="BS8" s="148"/>
-      <c r="BT8" s="149"/>
-      <c r="BU8" s="188"/>
-      <c r="BV8" s="189"/>
-      <c r="BW8" s="189"/>
-      <c r="BX8" s="190"/>
+      <c r="Y8" s="137"/>
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="137"/>
+      <c r="AD8" s="137"/>
+      <c r="AE8" s="137"/>
+      <c r="AF8" s="137"/>
+      <c r="AG8" s="137"/>
+      <c r="AH8" s="137"/>
+      <c r="AI8" s="137"/>
+      <c r="AJ8" s="137"/>
+      <c r="AK8" s="137"/>
+      <c r="AL8" s="137"/>
+      <c r="AM8" s="137"/>
+      <c r="AN8" s="137"/>
+      <c r="AO8" s="137"/>
+      <c r="AP8" s="137"/>
+      <c r="AQ8" s="137"/>
+      <c r="AR8" s="138"/>
+      <c r="AS8" s="136"/>
+      <c r="AT8" s="137"/>
+      <c r="AU8" s="137"/>
+      <c r="AV8" s="137"/>
+      <c r="AW8" s="137"/>
+      <c r="AX8" s="137"/>
+      <c r="AY8" s="137"/>
+      <c r="AZ8" s="137"/>
+      <c r="BA8" s="137"/>
+      <c r="BB8" s="137"/>
+      <c r="BC8" s="137"/>
+      <c r="BD8" s="137"/>
+      <c r="BE8" s="137"/>
+      <c r="BF8" s="137"/>
+      <c r="BG8" s="137"/>
+      <c r="BH8" s="137"/>
+      <c r="BI8" s="138"/>
+      <c r="BJ8" s="139"/>
+      <c r="BK8" s="139"/>
+      <c r="BL8" s="139"/>
+      <c r="BM8" s="139"/>
+      <c r="BN8" s="139"/>
+      <c r="BO8" s="140"/>
+      <c r="BP8" s="141"/>
+      <c r="BQ8" s="141"/>
+      <c r="BR8" s="141"/>
+      <c r="BS8" s="141"/>
+      <c r="BT8" s="142"/>
+      <c r="BU8" s="143"/>
+      <c r="BV8" s="144"/>
+      <c r="BW8" s="144"/>
+      <c r="BX8" s="145"/>
     </row>
     <row r="9" spans="1:77" ht="27" customHeight="1">
-      <c r="A9" s="124">
+      <c r="A9" s="132">
         <v>1</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="185" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="126" t="s">
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="141" t="s">
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="152" t="s">
         <v>140</v>
       </c>
-      <c r="T9" s="142"/>
-      <c r="U9" s="142"/>
-      <c r="V9" s="142"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="130" t="s">
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="154"/>
+      <c r="X9" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="Y9" s="131"/>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="131"/>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="131"/>
-      <c r="AD9" s="131"/>
-      <c r="AE9" s="131"/>
-      <c r="AF9" s="131"/>
-      <c r="AG9" s="131"/>
-      <c r="AH9" s="131"/>
-      <c r="AI9" s="131"/>
-      <c r="AJ9" s="131"/>
-      <c r="AK9" s="131"/>
-      <c r="AL9" s="131"/>
-      <c r="AM9" s="131"/>
-      <c r="AN9" s="131"/>
-      <c r="AO9" s="131"/>
-      <c r="AP9" s="131"/>
-      <c r="AQ9" s="131"/>
-      <c r="AR9" s="132"/>
-      <c r="AS9" s="126" t="s">
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="134"/>
+      <c r="AE9" s="134"/>
+      <c r="AF9" s="134"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="134"/>
+      <c r="AJ9" s="134"/>
+      <c r="AK9" s="134"/>
+      <c r="AL9" s="134"/>
+      <c r="AM9" s="134"/>
+      <c r="AN9" s="134"/>
+      <c r="AO9" s="134"/>
+      <c r="AP9" s="134"/>
+      <c r="AQ9" s="134"/>
+      <c r="AR9" s="135"/>
+      <c r="AS9" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="AT9" s="127"/>
-      <c r="AU9" s="127"/>
-      <c r="AV9" s="127"/>
-      <c r="AW9" s="127"/>
-      <c r="AX9" s="127"/>
-      <c r="AY9" s="127"/>
-      <c r="AZ9" s="127"/>
-      <c r="BA9" s="127"/>
-      <c r="BB9" s="127"/>
-      <c r="BC9" s="127"/>
-      <c r="BD9" s="127"/>
-      <c r="BE9" s="127"/>
-      <c r="BF9" s="127"/>
-      <c r="BG9" s="127"/>
-      <c r="BH9" s="127"/>
-      <c r="BI9" s="128"/>
-      <c r="BJ9" s="144" t="s">
+      <c r="AT9" s="137"/>
+      <c r="AU9" s="137"/>
+      <c r="AV9" s="137"/>
+      <c r="AW9" s="137"/>
+      <c r="AX9" s="137"/>
+      <c r="AY9" s="137"/>
+      <c r="AZ9" s="137"/>
+      <c r="BA9" s="137"/>
+      <c r="BB9" s="137"/>
+      <c r="BC9" s="137"/>
+      <c r="BD9" s="137"/>
+      <c r="BE9" s="137"/>
+      <c r="BF9" s="137"/>
+      <c r="BG9" s="137"/>
+      <c r="BH9" s="137"/>
+      <c r="BI9" s="138"/>
+      <c r="BJ9" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="BK9" s="145"/>
-      <c r="BL9" s="145"/>
-      <c r="BM9" s="145"/>
-      <c r="BN9" s="145"/>
-      <c r="BO9" s="146"/>
-      <c r="BP9" s="147" t="s">
+      <c r="BK9" s="139"/>
+      <c r="BL9" s="139"/>
+      <c r="BM9" s="139"/>
+      <c r="BN9" s="139"/>
+      <c r="BO9" s="140"/>
+      <c r="BP9" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="BQ9" s="148"/>
-      <c r="BR9" s="148"/>
-      <c r="BS9" s="148"/>
-      <c r="BT9" s="149"/>
-      <c r="BU9" s="188"/>
-      <c r="BV9" s="189"/>
-      <c r="BW9" s="189"/>
-      <c r="BX9" s="190"/>
+      <c r="BQ9" s="141"/>
+      <c r="BR9" s="141"/>
+      <c r="BS9" s="141"/>
+      <c r="BT9" s="142"/>
+      <c r="BU9" s="143"/>
+      <c r="BV9" s="144"/>
+      <c r="BW9" s="144"/>
+      <c r="BX9" s="145"/>
     </row>
     <row r="10" spans="1:77" ht="36" customHeight="1">
-      <c r="A10" s="124">
+      <c r="A10" s="132">
         <v>2</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="130" t="s">
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="141" t="s">
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="152" t="s">
         <v>140</v>
       </c>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="143"/>
-      <c r="X10" s="126" t="s">
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="127"/>
-      <c r="AH10" s="127"/>
-      <c r="AI10" s="127"/>
-      <c r="AJ10" s="127"/>
-      <c r="AK10" s="127"/>
-      <c r="AL10" s="127"/>
-      <c r="AM10" s="127"/>
-      <c r="AN10" s="127"/>
-      <c r="AO10" s="127"/>
-      <c r="AP10" s="127"/>
-      <c r="AQ10" s="127"/>
-      <c r="AR10" s="128"/>
-      <c r="AS10" s="130" t="s">
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="137"/>
+      <c r="AH10" s="137"/>
+      <c r="AI10" s="137"/>
+      <c r="AJ10" s="137"/>
+      <c r="AK10" s="137"/>
+      <c r="AL10" s="137"/>
+      <c r="AM10" s="137"/>
+      <c r="AN10" s="137"/>
+      <c r="AO10" s="137"/>
+      <c r="AP10" s="137"/>
+      <c r="AQ10" s="137"/>
+      <c r="AR10" s="138"/>
+      <c r="AS10" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="AT10" s="131"/>
-      <c r="AU10" s="131"/>
-      <c r="AV10" s="131"/>
-      <c r="AW10" s="131"/>
-      <c r="AX10" s="131"/>
-      <c r="AY10" s="131"/>
-      <c r="AZ10" s="131"/>
-      <c r="BA10" s="131"/>
-      <c r="BB10" s="131"/>
-      <c r="BC10" s="131"/>
-      <c r="BD10" s="131"/>
-      <c r="BE10" s="131"/>
-      <c r="BF10" s="131"/>
-      <c r="BG10" s="131"/>
-      <c r="BH10" s="131"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="144" t="s">
+      <c r="AT10" s="134"/>
+      <c r="AU10" s="134"/>
+      <c r="AV10" s="134"/>
+      <c r="AW10" s="134"/>
+      <c r="AX10" s="134"/>
+      <c r="AY10" s="134"/>
+      <c r="AZ10" s="134"/>
+      <c r="BA10" s="134"/>
+      <c r="BB10" s="134"/>
+      <c r="BC10" s="134"/>
+      <c r="BD10" s="134"/>
+      <c r="BE10" s="134"/>
+      <c r="BF10" s="134"/>
+      <c r="BG10" s="134"/>
+      <c r="BH10" s="134"/>
+      <c r="BI10" s="135"/>
+      <c r="BJ10" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="BK10" s="145"/>
-      <c r="BL10" s="145"/>
-      <c r="BM10" s="145"/>
-      <c r="BN10" s="145"/>
-      <c r="BO10" s="146"/>
-      <c r="BP10" s="147" t="s">
+      <c r="BK10" s="139"/>
+      <c r="BL10" s="139"/>
+      <c r="BM10" s="139"/>
+      <c r="BN10" s="139"/>
+      <c r="BO10" s="140"/>
+      <c r="BP10" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="BQ10" s="148"/>
-      <c r="BR10" s="148"/>
-      <c r="BS10" s="148"/>
-      <c r="BT10" s="149"/>
-      <c r="BU10" s="191"/>
-      <c r="BV10" s="192"/>
-      <c r="BW10" s="192"/>
-      <c r="BX10" s="193"/>
+      <c r="BQ10" s="141"/>
+      <c r="BR10" s="141"/>
+      <c r="BS10" s="141"/>
+      <c r="BT10" s="142"/>
+      <c r="BU10" s="155"/>
+      <c r="BV10" s="156"/>
+      <c r="BW10" s="156"/>
+      <c r="BX10" s="157"/>
     </row>
     <row r="11" spans="1:77" s="82" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A11" s="124">
+      <c r="A11" s="132">
         <v>3</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="138" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="141" t="s">
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="143"/>
-      <c r="X11" s="126" t="s">
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="127"/>
-      <c r="AF11" s="127"/>
-      <c r="AG11" s="127"/>
-      <c r="AH11" s="127"/>
-      <c r="AI11" s="127"/>
-      <c r="AJ11" s="127"/>
-      <c r="AK11" s="127"/>
-      <c r="AL11" s="127"/>
-      <c r="AM11" s="127"/>
-      <c r="AN11" s="127"/>
-      <c r="AO11" s="127"/>
-      <c r="AP11" s="127"/>
-      <c r="AQ11" s="127"/>
-      <c r="AR11" s="128"/>
-      <c r="AS11" s="130" t="s">
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="137"/>
+      <c r="AH11" s="137"/>
+      <c r="AI11" s="137"/>
+      <c r="AJ11" s="137"/>
+      <c r="AK11" s="137"/>
+      <c r="AL11" s="137"/>
+      <c r="AM11" s="137"/>
+      <c r="AN11" s="137"/>
+      <c r="AO11" s="137"/>
+      <c r="AP11" s="137"/>
+      <c r="AQ11" s="137"/>
+      <c r="AR11" s="138"/>
+      <c r="AS11" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="AT11" s="131"/>
-      <c r="AU11" s="131"/>
-      <c r="AV11" s="131"/>
-      <c r="AW11" s="131"/>
-      <c r="AX11" s="131"/>
-      <c r="AY11" s="131"/>
-      <c r="AZ11" s="131"/>
-      <c r="BA11" s="131"/>
-      <c r="BB11" s="131"/>
-      <c r="BC11" s="131"/>
-      <c r="BD11" s="131"/>
-      <c r="BE11" s="131"/>
-      <c r="BF11" s="131"/>
-      <c r="BG11" s="131"/>
-      <c r="BH11" s="131"/>
-      <c r="BI11" s="132"/>
-      <c r="BJ11" s="144" t="s">
+      <c r="AT11" s="134"/>
+      <c r="AU11" s="134"/>
+      <c r="AV11" s="134"/>
+      <c r="AW11" s="134"/>
+      <c r="AX11" s="134"/>
+      <c r="AY11" s="134"/>
+      <c r="AZ11" s="134"/>
+      <c r="BA11" s="134"/>
+      <c r="BB11" s="134"/>
+      <c r="BC11" s="134"/>
+      <c r="BD11" s="134"/>
+      <c r="BE11" s="134"/>
+      <c r="BF11" s="134"/>
+      <c r="BG11" s="134"/>
+      <c r="BH11" s="134"/>
+      <c r="BI11" s="135"/>
+      <c r="BJ11" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="BK11" s="145"/>
-      <c r="BL11" s="145"/>
-      <c r="BM11" s="145"/>
-      <c r="BN11" s="145"/>
-      <c r="BO11" s="146"/>
-      <c r="BP11" s="147" t="s">
+      <c r="BK11" s="139"/>
+      <c r="BL11" s="139"/>
+      <c r="BM11" s="139"/>
+      <c r="BN11" s="139"/>
+      <c r="BO11" s="140"/>
+      <c r="BP11" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="BQ11" s="148"/>
-      <c r="BR11" s="148"/>
-      <c r="BS11" s="148"/>
-      <c r="BT11" s="149"/>
-      <c r="BU11" s="150"/>
-      <c r="BV11" s="151"/>
-      <c r="BW11" s="151"/>
-      <c r="BX11" s="152"/>
+      <c r="BQ11" s="141"/>
+      <c r="BR11" s="141"/>
+      <c r="BS11" s="141"/>
+      <c r="BT11" s="142"/>
+      <c r="BU11" s="161"/>
+      <c r="BV11" s="162"/>
+      <c r="BW11" s="162"/>
+      <c r="BX11" s="163"/>
       <c r="BY11" s="26"/>
     </row>
     <row r="12" spans="1:77" s="59" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="124">
+      <c r="A12" s="132">
         <v>4</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125" t="s">
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="126" t="s">
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="129" t="s">
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129"/>
-      <c r="X12" s="126" t="s">
+      <c r="T12" s="146"/>
+      <c r="U12" s="146"/>
+      <c r="V12" s="146"/>
+      <c r="W12" s="146"/>
+      <c r="X12" s="136" t="s">
         <v>192</v>
       </c>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="127"/>
-      <c r="AG12" s="127"/>
-      <c r="AH12" s="127"/>
-      <c r="AI12" s="127"/>
-      <c r="AJ12" s="127"/>
-      <c r="AK12" s="127"/>
-      <c r="AL12" s="127"/>
-      <c r="AM12" s="127"/>
-      <c r="AN12" s="127"/>
-      <c r="AO12" s="127"/>
-      <c r="AP12" s="127"/>
-      <c r="AQ12" s="127"/>
-      <c r="AR12" s="128"/>
-      <c r="AS12" s="125" t="s">
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="137"/>
+      <c r="AJ12" s="137"/>
+      <c r="AK12" s="137"/>
+      <c r="AL12" s="137"/>
+      <c r="AM12" s="137"/>
+      <c r="AN12" s="137"/>
+      <c r="AO12" s="137"/>
+      <c r="AP12" s="137"/>
+      <c r="AQ12" s="137"/>
+      <c r="AR12" s="138"/>
+      <c r="AS12" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="AT12" s="125"/>
-      <c r="AU12" s="125"/>
-      <c r="AV12" s="125"/>
-      <c r="AW12" s="125"/>
-      <c r="AX12" s="125"/>
-      <c r="AY12" s="125"/>
-      <c r="AZ12" s="125"/>
-      <c r="BA12" s="125"/>
-      <c r="BB12" s="125"/>
-      <c r="BC12" s="125"/>
-      <c r="BD12" s="125"/>
-      <c r="BE12" s="125"/>
-      <c r="BF12" s="125"/>
-      <c r="BG12" s="125"/>
-      <c r="BH12" s="125"/>
-      <c r="BI12" s="125"/>
-      <c r="BJ12" s="144" t="s">
+      <c r="AT12" s="124"/>
+      <c r="AU12" s="124"/>
+      <c r="AV12" s="124"/>
+      <c r="AW12" s="124"/>
+      <c r="AX12" s="124"/>
+      <c r="AY12" s="124"/>
+      <c r="AZ12" s="124"/>
+      <c r="BA12" s="124"/>
+      <c r="BB12" s="124"/>
+      <c r="BC12" s="124"/>
+      <c r="BD12" s="124"/>
+      <c r="BE12" s="124"/>
+      <c r="BF12" s="124"/>
+      <c r="BG12" s="124"/>
+      <c r="BH12" s="124"/>
+      <c r="BI12" s="124"/>
+      <c r="BJ12" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="BK12" s="145"/>
-      <c r="BL12" s="145"/>
-      <c r="BM12" s="145"/>
-      <c r="BN12" s="145"/>
-      <c r="BO12" s="146"/>
-      <c r="BP12" s="147" t="s">
+      <c r="BK12" s="139"/>
+      <c r="BL12" s="139"/>
+      <c r="BM12" s="139"/>
+      <c r="BN12" s="139"/>
+      <c r="BO12" s="140"/>
+      <c r="BP12" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="BQ12" s="148"/>
-      <c r="BR12" s="148"/>
-      <c r="BS12" s="148"/>
-      <c r="BT12" s="149"/>
-      <c r="BU12" s="136"/>
-      <c r="BV12" s="137"/>
-      <c r="BW12" s="137"/>
-      <c r="BX12" s="137"/>
+      <c r="BQ12" s="141"/>
+      <c r="BR12" s="141"/>
+      <c r="BS12" s="141"/>
+      <c r="BT12" s="142"/>
+      <c r="BU12" s="130"/>
+      <c r="BV12" s="131"/>
+      <c r="BW12" s="131"/>
+      <c r="BX12" s="131"/>
       <c r="BY12" s="60"/>
     </row>
     <row r="13" spans="1:77" s="82" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A13" s="124">
+      <c r="A13" s="132">
         <v>5</v>
       </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="138" t="s">
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="141" t="s">
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="T13" s="142"/>
-      <c r="U13" s="142"/>
-      <c r="V13" s="142"/>
-      <c r="W13" s="143"/>
-      <c r="X13" s="126" t="s">
+      <c r="T13" s="153"/>
+      <c r="U13" s="153"/>
+      <c r="V13" s="153"/>
+      <c r="W13" s="154"/>
+      <c r="X13" s="136" t="s">
         <v>193</v>
       </c>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="127"/>
-      <c r="AI13" s="127"/>
-      <c r="AJ13" s="127"/>
-      <c r="AK13" s="127"/>
-      <c r="AL13" s="127"/>
-      <c r="AM13" s="127"/>
-      <c r="AN13" s="127"/>
-      <c r="AO13" s="127"/>
-      <c r="AP13" s="127"/>
-      <c r="AQ13" s="127"/>
-      <c r="AR13" s="128"/>
-      <c r="AS13" s="130" t="s">
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="137"/>
+      <c r="AJ13" s="137"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="137"/>
+      <c r="AM13" s="137"/>
+      <c r="AN13" s="137"/>
+      <c r="AO13" s="137"/>
+      <c r="AP13" s="137"/>
+      <c r="AQ13" s="137"/>
+      <c r="AR13" s="138"/>
+      <c r="AS13" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="AT13" s="131"/>
-      <c r="AU13" s="131"/>
-      <c r="AV13" s="131"/>
-      <c r="AW13" s="131"/>
-      <c r="AX13" s="131"/>
-      <c r="AY13" s="131"/>
-      <c r="AZ13" s="131"/>
-      <c r="BA13" s="131"/>
-      <c r="BB13" s="131"/>
-      <c r="BC13" s="131"/>
-      <c r="BD13" s="131"/>
-      <c r="BE13" s="131"/>
-      <c r="BF13" s="131"/>
-      <c r="BG13" s="131"/>
-      <c r="BH13" s="131"/>
-      <c r="BI13" s="132"/>
-      <c r="BJ13" s="144" t="s">
+      <c r="AT13" s="134"/>
+      <c r="AU13" s="134"/>
+      <c r="AV13" s="134"/>
+      <c r="AW13" s="134"/>
+      <c r="AX13" s="134"/>
+      <c r="AY13" s="134"/>
+      <c r="AZ13" s="134"/>
+      <c r="BA13" s="134"/>
+      <c r="BB13" s="134"/>
+      <c r="BC13" s="134"/>
+      <c r="BD13" s="134"/>
+      <c r="BE13" s="134"/>
+      <c r="BF13" s="134"/>
+      <c r="BG13" s="134"/>
+      <c r="BH13" s="134"/>
+      <c r="BI13" s="135"/>
+      <c r="BJ13" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="BK13" s="145"/>
-      <c r="BL13" s="145"/>
-      <c r="BM13" s="145"/>
-      <c r="BN13" s="145"/>
-      <c r="BO13" s="146"/>
-      <c r="BP13" s="147" t="s">
+      <c r="BK13" s="139"/>
+      <c r="BL13" s="139"/>
+      <c r="BM13" s="139"/>
+      <c r="BN13" s="139"/>
+      <c r="BO13" s="140"/>
+      <c r="BP13" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="BQ13" s="148"/>
-      <c r="BR13" s="148"/>
-      <c r="BS13" s="148"/>
-      <c r="BT13" s="149"/>
-      <c r="BU13" s="150"/>
-      <c r="BV13" s="151"/>
-      <c r="BW13" s="151"/>
-      <c r="BX13" s="152"/>
+      <c r="BQ13" s="141"/>
+      <c r="BR13" s="141"/>
+      <c r="BS13" s="141"/>
+      <c r="BT13" s="142"/>
+      <c r="BU13" s="161"/>
+      <c r="BV13" s="162"/>
+      <c r="BW13" s="162"/>
+      <c r="BX13" s="163"/>
       <c r="BY13" s="26"/>
     </row>
     <row r="14" spans="1:77" s="59" customFormat="1" ht="27" customHeight="1">
-      <c r="A14" s="124">
+      <c r="A14" s="132">
         <v>6</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125" t="s">
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="124" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="129" t="s">
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="T14" s="129"/>
-      <c r="U14" s="129"/>
-      <c r="V14" s="129"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="130" t="s">
+      <c r="T14" s="146"/>
+      <c r="U14" s="146"/>
+      <c r="V14" s="146"/>
+      <c r="W14" s="146"/>
+      <c r="X14" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
-      <c r="AA14" s="131"/>
-      <c r="AB14" s="131"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="131"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="131"/>
-      <c r="AG14" s="131"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="131"/>
-      <c r="AJ14" s="131"/>
-      <c r="AK14" s="131"/>
-      <c r="AL14" s="131"/>
-      <c r="AM14" s="131"/>
-      <c r="AN14" s="131"/>
-      <c r="AO14" s="131"/>
-      <c r="AP14" s="131"/>
-      <c r="AQ14" s="131"/>
-      <c r="AR14" s="132"/>
-      <c r="AS14" s="125" t="s">
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="134"/>
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="134"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="134"/>
+      <c r="AJ14" s="134"/>
+      <c r="AK14" s="134"/>
+      <c r="AL14" s="134"/>
+      <c r="AM14" s="134"/>
+      <c r="AN14" s="134"/>
+      <c r="AO14" s="134"/>
+      <c r="AP14" s="134"/>
+      <c r="AQ14" s="134"/>
+      <c r="AR14" s="135"/>
+      <c r="AS14" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="AT14" s="125"/>
-      <c r="AU14" s="125"/>
-      <c r="AV14" s="125"/>
-      <c r="AW14" s="125"/>
-      <c r="AX14" s="125"/>
-      <c r="AY14" s="125"/>
-      <c r="AZ14" s="125"/>
-      <c r="BA14" s="125"/>
-      <c r="BB14" s="125"/>
-      <c r="BC14" s="125"/>
-      <c r="BD14" s="125"/>
-      <c r="BE14" s="125"/>
-      <c r="BF14" s="125"/>
-      <c r="BG14" s="125"/>
-      <c r="BH14" s="125"/>
-      <c r="BI14" s="125"/>
-      <c r="BJ14" s="144" t="s">
+      <c r="AT14" s="124"/>
+      <c r="AU14" s="124"/>
+      <c r="AV14" s="124"/>
+      <c r="AW14" s="124"/>
+      <c r="AX14" s="124"/>
+      <c r="AY14" s="124"/>
+      <c r="AZ14" s="124"/>
+      <c r="BA14" s="124"/>
+      <c r="BB14" s="124"/>
+      <c r="BC14" s="124"/>
+      <c r="BD14" s="124"/>
+      <c r="BE14" s="124"/>
+      <c r="BF14" s="124"/>
+      <c r="BG14" s="124"/>
+      <c r="BH14" s="124"/>
+      <c r="BI14" s="124"/>
+      <c r="BJ14" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="BK14" s="145"/>
-      <c r="BL14" s="145"/>
-      <c r="BM14" s="145"/>
-      <c r="BN14" s="145"/>
-      <c r="BO14" s="146"/>
-      <c r="BP14" s="147" t="s">
+      <c r="BK14" s="139"/>
+      <c r="BL14" s="139"/>
+      <c r="BM14" s="139"/>
+      <c r="BN14" s="139"/>
+      <c r="BO14" s="140"/>
+      <c r="BP14" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="BQ14" s="148"/>
-      <c r="BR14" s="148"/>
-      <c r="BS14" s="148"/>
-      <c r="BT14" s="149"/>
-      <c r="BU14" s="136"/>
-      <c r="BV14" s="137"/>
-      <c r="BW14" s="137"/>
-      <c r="BX14" s="137"/>
+      <c r="BQ14" s="141"/>
+      <c r="BR14" s="141"/>
+      <c r="BS14" s="141"/>
+      <c r="BT14" s="142"/>
+      <c r="BU14" s="130"/>
+      <c r="BV14" s="131"/>
+      <c r="BW14" s="131"/>
+      <c r="BX14" s="131"/>
       <c r="BY14" s="60"/>
     </row>
     <row r="15" spans="1:77" s="59" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="124">
+      <c r="A15" s="132">
         <v>7</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125" t="s">
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="129" t="s">
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="126" t="s">
+      <c r="T15" s="146"/>
+      <c r="U15" s="146"/>
+      <c r="V15" s="146"/>
+      <c r="W15" s="146"/>
+      <c r="X15" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="127"/>
-      <c r="AG15" s="127"/>
-      <c r="AH15" s="127"/>
-      <c r="AI15" s="127"/>
-      <c r="AJ15" s="127"/>
-      <c r="AK15" s="127"/>
-      <c r="AL15" s="127"/>
-      <c r="AM15" s="127"/>
-      <c r="AN15" s="127"/>
-      <c r="AO15" s="127"/>
-      <c r="AP15" s="127"/>
-      <c r="AQ15" s="127"/>
-      <c r="AR15" s="128"/>
-      <c r="AS15" s="125" t="s">
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="137"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="137"/>
+      <c r="AK15" s="137"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="137"/>
+      <c r="AN15" s="137"/>
+      <c r="AO15" s="137"/>
+      <c r="AP15" s="137"/>
+      <c r="AQ15" s="137"/>
+      <c r="AR15" s="138"/>
+      <c r="AS15" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="AT15" s="125"/>
-      <c r="AU15" s="125"/>
-      <c r="AV15" s="125"/>
-      <c r="AW15" s="125"/>
-      <c r="AX15" s="125"/>
-      <c r="AY15" s="125"/>
-      <c r="AZ15" s="125"/>
-      <c r="BA15" s="125"/>
-      <c r="BB15" s="125"/>
-      <c r="BC15" s="125"/>
-      <c r="BD15" s="125"/>
-      <c r="BE15" s="125"/>
-      <c r="BF15" s="125"/>
-      <c r="BG15" s="125"/>
-      <c r="BH15" s="125"/>
-      <c r="BI15" s="125"/>
-      <c r="BJ15" s="133" t="s">
+      <c r="AT15" s="124"/>
+      <c r="AU15" s="124"/>
+      <c r="AV15" s="124"/>
+      <c r="AW15" s="124"/>
+      <c r="AX15" s="124"/>
+      <c r="AY15" s="124"/>
+      <c r="AZ15" s="124"/>
+      <c r="BA15" s="124"/>
+      <c r="BB15" s="124"/>
+      <c r="BC15" s="124"/>
+      <c r="BD15" s="124"/>
+      <c r="BE15" s="124"/>
+      <c r="BF15" s="124"/>
+      <c r="BG15" s="124"/>
+      <c r="BH15" s="124"/>
+      <c r="BI15" s="124"/>
+      <c r="BJ15" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="BK15" s="134"/>
-      <c r="BL15" s="134"/>
-      <c r="BM15" s="134"/>
-      <c r="BN15" s="134"/>
-      <c r="BO15" s="135"/>
-      <c r="BP15" s="133" t="s">
+      <c r="BK15" s="126"/>
+      <c r="BL15" s="126"/>
+      <c r="BM15" s="126"/>
+      <c r="BN15" s="126"/>
+      <c r="BO15" s="127"/>
+      <c r="BP15" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="BQ15" s="197"/>
-      <c r="BR15" s="197"/>
-      <c r="BS15" s="197"/>
-      <c r="BT15" s="198"/>
-      <c r="BU15" s="136"/>
-      <c r="BV15" s="137"/>
-      <c r="BW15" s="137"/>
-      <c r="BX15" s="137"/>
+      <c r="BQ15" s="128"/>
+      <c r="BR15" s="128"/>
+      <c r="BS15" s="128"/>
+      <c r="BT15" s="129"/>
+      <c r="BU15" s="130"/>
+      <c r="BV15" s="131"/>
+      <c r="BW15" s="131"/>
+      <c r="BX15" s="131"/>
       <c r="BY15" s="60"/>
     </row>
+    <row r="18" spans="1:76" s="216" customFormat="1" ht="27" customHeight="1">
+      <c r="A18" s="199">
+        <v>1</v>
+      </c>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="200" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="206" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="207"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="207"/>
+      <c r="P18" s="207"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="208"/>
+      <c r="S18" s="203" t="s">
+        <v>140</v>
+      </c>
+      <c r="T18" s="204"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="205"/>
+      <c r="X18" s="206" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y18" s="207"/>
+      <c r="Z18" s="207"/>
+      <c r="AA18" s="207"/>
+      <c r="AB18" s="207"/>
+      <c r="AC18" s="207"/>
+      <c r="AD18" s="207"/>
+      <c r="AE18" s="207"/>
+      <c r="AF18" s="207"/>
+      <c r="AG18" s="207"/>
+      <c r="AH18" s="207"/>
+      <c r="AI18" s="207"/>
+      <c r="AJ18" s="207"/>
+      <c r="AK18" s="207"/>
+      <c r="AL18" s="207"/>
+      <c r="AM18" s="207"/>
+      <c r="AN18" s="207"/>
+      <c r="AO18" s="207"/>
+      <c r="AP18" s="207"/>
+      <c r="AQ18" s="207"/>
+      <c r="AR18" s="208"/>
+      <c r="AS18" s="206" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT18" s="207"/>
+      <c r="AU18" s="207"/>
+      <c r="AV18" s="207"/>
+      <c r="AW18" s="207"/>
+      <c r="AX18" s="207"/>
+      <c r="AY18" s="207"/>
+      <c r="AZ18" s="207"/>
+      <c r="BA18" s="207"/>
+      <c r="BB18" s="207"/>
+      <c r="BC18" s="207"/>
+      <c r="BD18" s="207"/>
+      <c r="BE18" s="207"/>
+      <c r="BF18" s="207"/>
+      <c r="BG18" s="207"/>
+      <c r="BH18" s="207"/>
+      <c r="BI18" s="208"/>
+      <c r="BJ18" s="209"/>
+      <c r="BK18" s="209"/>
+      <c r="BL18" s="209"/>
+      <c r="BM18" s="209"/>
+      <c r="BN18" s="209"/>
+      <c r="BO18" s="210"/>
+      <c r="BP18" s="211"/>
+      <c r="BQ18" s="211"/>
+      <c r="BR18" s="211"/>
+      <c r="BS18" s="211"/>
+      <c r="BT18" s="212"/>
+      <c r="BU18" s="213"/>
+      <c r="BV18" s="214"/>
+      <c r="BW18" s="214"/>
+      <c r="BX18" s="215"/>
+    </row>
+    <row r="19" spans="1:76" s="216" customFormat="1" ht="27" customHeight="1">
+      <c r="A19" s="199">
+        <v>2</v>
+      </c>
+      <c r="B19" s="199"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="200" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="206" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" s="207"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="207"/>
+      <c r="P19" s="207"/>
+      <c r="Q19" s="207"/>
+      <c r="R19" s="208"/>
+      <c r="S19" s="203" t="s">
+        <v>140</v>
+      </c>
+      <c r="T19" s="204"/>
+      <c r="U19" s="204"/>
+      <c r="V19" s="204"/>
+      <c r="W19" s="205"/>
+      <c r="X19" s="206" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y19" s="207"/>
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="207"/>
+      <c r="AB19" s="207"/>
+      <c r="AC19" s="207"/>
+      <c r="AD19" s="207"/>
+      <c r="AE19" s="207"/>
+      <c r="AF19" s="207"/>
+      <c r="AG19" s="207"/>
+      <c r="AH19" s="207"/>
+      <c r="AI19" s="207"/>
+      <c r="AJ19" s="207"/>
+      <c r="AK19" s="207"/>
+      <c r="AL19" s="207"/>
+      <c r="AM19" s="207"/>
+      <c r="AN19" s="207"/>
+      <c r="AO19" s="207"/>
+      <c r="AP19" s="207"/>
+      <c r="AQ19" s="207"/>
+      <c r="AR19" s="208"/>
+      <c r="AS19" s="206" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT19" s="207"/>
+      <c r="AU19" s="207"/>
+      <c r="AV19" s="207"/>
+      <c r="AW19" s="207"/>
+      <c r="AX19" s="207"/>
+      <c r="AY19" s="207"/>
+      <c r="AZ19" s="207"/>
+      <c r="BA19" s="207"/>
+      <c r="BB19" s="207"/>
+      <c r="BC19" s="207"/>
+      <c r="BD19" s="207"/>
+      <c r="BE19" s="207"/>
+      <c r="BF19" s="207"/>
+      <c r="BG19" s="207"/>
+      <c r="BH19" s="207"/>
+      <c r="BI19" s="208"/>
+      <c r="BJ19" s="209"/>
+      <c r="BK19" s="209"/>
+      <c r="BL19" s="209"/>
+      <c r="BM19" s="209"/>
+      <c r="BN19" s="209"/>
+      <c r="BO19" s="210"/>
+      <c r="BP19" s="211"/>
+      <c r="BQ19" s="211"/>
+      <c r="BR19" s="211"/>
+      <c r="BS19" s="211"/>
+      <c r="BT19" s="212"/>
+      <c r="BU19" s="213"/>
+      <c r="BV19" s="214"/>
+      <c r="BW19" s="214"/>
+      <c r="BX19" s="215"/>
+    </row>
+    <row r="20" spans="1:76" s="216" customFormat="1" ht="27" customHeight="1">
+      <c r="A20" s="199">
+        <v>3</v>
+      </c>
+      <c r="B20" s="199"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="200" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="206" t="s">
+        <v>219</v>
+      </c>
+      <c r="M20" s="207"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="207"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="208"/>
+      <c r="S20" s="203" t="s">
+        <v>140</v>
+      </c>
+      <c r="T20" s="204"/>
+      <c r="U20" s="204"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="205"/>
+      <c r="X20" s="206" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y20" s="207"/>
+      <c r="Z20" s="207"/>
+      <c r="AA20" s="207"/>
+      <c r="AB20" s="207"/>
+      <c r="AC20" s="207"/>
+      <c r="AD20" s="207"/>
+      <c r="AE20" s="207"/>
+      <c r="AF20" s="207"/>
+      <c r="AG20" s="207"/>
+      <c r="AH20" s="207"/>
+      <c r="AI20" s="207"/>
+      <c r="AJ20" s="207"/>
+      <c r="AK20" s="207"/>
+      <c r="AL20" s="207"/>
+      <c r="AM20" s="207"/>
+      <c r="AN20" s="207"/>
+      <c r="AO20" s="207"/>
+      <c r="AP20" s="207"/>
+      <c r="AQ20" s="207"/>
+      <c r="AR20" s="208"/>
+      <c r="AS20" s="206" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT20" s="207"/>
+      <c r="AU20" s="207"/>
+      <c r="AV20" s="207"/>
+      <c r="AW20" s="207"/>
+      <c r="AX20" s="207"/>
+      <c r="AY20" s="207"/>
+      <c r="AZ20" s="207"/>
+      <c r="BA20" s="207"/>
+      <c r="BB20" s="207"/>
+      <c r="BC20" s="207"/>
+      <c r="BD20" s="207"/>
+      <c r="BE20" s="207"/>
+      <c r="BF20" s="207"/>
+      <c r="BG20" s="207"/>
+      <c r="BH20" s="207"/>
+      <c r="BI20" s="208"/>
+      <c r="BJ20" s="209"/>
+      <c r="BK20" s="209"/>
+      <c r="BL20" s="209"/>
+      <c r="BM20" s="209"/>
+      <c r="BN20" s="209"/>
+      <c r="BO20" s="210"/>
+      <c r="BP20" s="211"/>
+      <c r="BQ20" s="211"/>
+      <c r="BR20" s="211"/>
+      <c r="BS20" s="211"/>
+      <c r="BT20" s="212"/>
+      <c r="BU20" s="213"/>
+      <c r="BV20" s="214"/>
+      <c r="BW20" s="214"/>
+      <c r="BX20" s="215"/>
+    </row>
+    <row r="21" spans="1:76" s="216" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A21" s="199">
+        <v>4</v>
+      </c>
+      <c r="B21" s="199"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="200" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="206" t="s">
+        <v>222</v>
+      </c>
+      <c r="M21" s="207"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="207"/>
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="208"/>
+      <c r="S21" s="203" t="s">
+        <v>140</v>
+      </c>
+      <c r="T21" s="204"/>
+      <c r="U21" s="204"/>
+      <c r="V21" s="204"/>
+      <c r="W21" s="205"/>
+      <c r="X21" s="206" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y21" s="207"/>
+      <c r="Z21" s="207"/>
+      <c r="AA21" s="207"/>
+      <c r="AB21" s="207"/>
+      <c r="AC21" s="207"/>
+      <c r="AD21" s="207"/>
+      <c r="AE21" s="207"/>
+      <c r="AF21" s="207"/>
+      <c r="AG21" s="207"/>
+      <c r="AH21" s="207"/>
+      <c r="AI21" s="207"/>
+      <c r="AJ21" s="207"/>
+      <c r="AK21" s="207"/>
+      <c r="AL21" s="207"/>
+      <c r="AM21" s="207"/>
+      <c r="AN21" s="207"/>
+      <c r="AO21" s="207"/>
+      <c r="AP21" s="207"/>
+      <c r="AQ21" s="207"/>
+      <c r="AR21" s="208"/>
+      <c r="AS21" s="206" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT21" s="207"/>
+      <c r="AU21" s="207"/>
+      <c r="AV21" s="207"/>
+      <c r="AW21" s="207"/>
+      <c r="AX21" s="207"/>
+      <c r="AY21" s="207"/>
+      <c r="AZ21" s="207"/>
+      <c r="BA21" s="207"/>
+      <c r="BB21" s="207"/>
+      <c r="BC21" s="207"/>
+      <c r="BD21" s="207"/>
+      <c r="BE21" s="207"/>
+      <c r="BF21" s="207"/>
+      <c r="BG21" s="207"/>
+      <c r="BH21" s="207"/>
+      <c r="BI21" s="208"/>
+      <c r="BJ21" s="231"/>
+      <c r="BK21" s="231"/>
+      <c r="BL21" s="231"/>
+      <c r="BM21" s="231"/>
+      <c r="BN21" s="231"/>
+      <c r="BO21" s="231"/>
+      <c r="BP21" s="231"/>
+      <c r="BQ21" s="231"/>
+      <c r="BR21" s="231"/>
+      <c r="BS21" s="231"/>
+      <c r="BT21" s="231"/>
+      <c r="BU21" s="232"/>
+      <c r="BV21" s="233"/>
+      <c r="BW21" s="233"/>
+      <c r="BX21" s="233"/>
+    </row>
+    <row r="22" spans="1:76" s="216" customFormat="1">
+      <c r="U22" s="217"/>
+    </row>
+    <row r="23" spans="1:76" s="216" customFormat="1">
+      <c r="U23" s="217"/>
+    </row>
+    <row r="24" spans="1:76" s="216" customFormat="1">
+      <c r="U24" s="217"/>
+    </row>
+    <row r="25" spans="1:76" s="216" customFormat="1">
+      <c r="U25" s="217"/>
+    </row>
+    <row r="26" spans="1:76" s="216" customFormat="1">
+      <c r="U26" s="217"/>
+    </row>
+    <row r="27" spans="1:76" s="216" customFormat="1">
+      <c r="U27" s="217"/>
+    </row>
+    <row r="28" spans="1:76" s="216" customFormat="1">
+      <c r="U28" s="217"/>
+    </row>
+    <row r="29" spans="1:76" s="216" customFormat="1">
+      <c r="U29" s="217"/>
+    </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="134">
+    <mergeCell ref="AS21:BI21"/>
+    <mergeCell ref="BJ21:BO21"/>
+    <mergeCell ref="BP21:BT21"/>
+    <mergeCell ref="BU21:BX21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="X21:AR21"/>
+    <mergeCell ref="AS19:BI19"/>
+    <mergeCell ref="BJ19:BO19"/>
+    <mergeCell ref="BP19:BT19"/>
+    <mergeCell ref="BU19:BX19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:AR20"/>
+    <mergeCell ref="AS20:BI20"/>
+    <mergeCell ref="BJ20:BO20"/>
+    <mergeCell ref="BP20:BT20"/>
+    <mergeCell ref="BU20:BX20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:AR19"/>
+    <mergeCell ref="BU11:BX11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:AR18"/>
+    <mergeCell ref="AS18:BI18"/>
+    <mergeCell ref="BJ18:BO18"/>
+    <mergeCell ref="BP18:BT18"/>
+    <mergeCell ref="BU18:BX18"/>
+    <mergeCell ref="BJ10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="X11:AR11"/>
+    <mergeCell ref="AS11:BI11"/>
+    <mergeCell ref="BJ11:BO11"/>
+    <mergeCell ref="BP11:BT11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="X10:AR10"/>
+    <mergeCell ref="AS10:BI10"/>
+    <mergeCell ref="A2:AE3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="Z4:BG4"/>
+    <mergeCell ref="BQ4:BS4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="Z5:BG5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="BK5:BP5"/>
+    <mergeCell ref="BQ5:BS5"/>
+    <mergeCell ref="BT5:BW5"/>
+    <mergeCell ref="BH4:BJ4"/>
+    <mergeCell ref="BK4:BP4"/>
+    <mergeCell ref="BU7:BX7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="X9:AR9"/>
+    <mergeCell ref="AS9:BI9"/>
+    <mergeCell ref="BJ9:BO9"/>
+    <mergeCell ref="BP9:BT9"/>
+    <mergeCell ref="BU9:BX9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="X7:AR7"/>
+    <mergeCell ref="AS7:BI7"/>
+    <mergeCell ref="BJ7:BO7"/>
+    <mergeCell ref="BP7:BT7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="X13:AR13"/>
+    <mergeCell ref="AS13:BI13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="AS12:BI12"/>
+    <mergeCell ref="BJ12:BO12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="AS14:BI14"/>
+    <mergeCell ref="BJ14:BO14"/>
+    <mergeCell ref="BP14:BT14"/>
+    <mergeCell ref="BU14:BX14"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X12:AR12"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="BP12:BT12"/>
+    <mergeCell ref="BU12:BX12"/>
+    <mergeCell ref="BU10:BX10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="BJ13:BO13"/>
+    <mergeCell ref="BP13:BT13"/>
+    <mergeCell ref="BU13:BX13"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="X14:AR14"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="BJ15:BO15"/>
     <mergeCell ref="BP15:BT15"/>
@@ -4427,88 +5293,6 @@
     <mergeCell ref="AS15:BI15"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="L15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="X14:AR14"/>
-    <mergeCell ref="AS14:BI14"/>
-    <mergeCell ref="BJ14:BO14"/>
-    <mergeCell ref="BP14:BT14"/>
-    <mergeCell ref="BU14:BX14"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X12:AR12"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="AS12:BI12"/>
-    <mergeCell ref="BJ12:BO12"/>
-    <mergeCell ref="BP12:BT12"/>
-    <mergeCell ref="BU12:BX12"/>
-    <mergeCell ref="BU10:BX10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="X13:AR13"/>
-    <mergeCell ref="AS13:BI13"/>
-    <mergeCell ref="BJ13:BO13"/>
-    <mergeCell ref="BP13:BT13"/>
-    <mergeCell ref="BU13:BX13"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="BU7:BX7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="X9:AR9"/>
-    <mergeCell ref="AS9:BI9"/>
-    <mergeCell ref="BJ9:BO9"/>
-    <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BU9:BX9"/>
-    <mergeCell ref="BQ4:BS4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="Z5:BG5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="BK5:BP5"/>
-    <mergeCell ref="BQ5:BS5"/>
-    <mergeCell ref="BT5:BW5"/>
-    <mergeCell ref="A2:AE3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:Y4"/>
-    <mergeCell ref="Z4:BG4"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="BK4:BP4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="X7:AR7"/>
-    <mergeCell ref="AS7:BI7"/>
-    <mergeCell ref="BJ7:BO7"/>
-    <mergeCell ref="BP7:BT7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="X10:AR10"/>
-    <mergeCell ref="AS10:BI10"/>
-    <mergeCell ref="BJ10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="X11:AR11"/>
-    <mergeCell ref="AS11:BI11"/>
-    <mergeCell ref="BJ11:BO11"/>
-    <mergeCell ref="BP11:BT11"/>
-    <mergeCell ref="BU11:BX11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4518,38 +5302,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AH52"/>
+  <dimension ref="A2:AH68"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="35"/>
+    <col min="1" max="1" width="14.875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="35"/>
     <col min="4" max="4" width="15.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="35" customWidth="1"/>
     <col min="9" max="9" width="12" style="35" customWidth="1"/>
-    <col min="10" max="10" width="11.796875" style="35" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" style="35" customWidth="1"/>
-    <col min="13" max="13" width="9.09765625" style="35" customWidth="1"/>
-    <col min="14" max="14" width="12.796875" style="35" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" style="35"/>
-    <col min="16" max="16" width="25.59765625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="35" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="35" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="35" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="35" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="35" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="35"/>
+    <col min="16" max="16" width="25.625" style="35" customWidth="1"/>
     <col min="17" max="18" width="12.5" style="35" customWidth="1"/>
-    <col min="19" max="21" width="9.59765625" style="35"/>
-    <col min="22" max="22" width="8.59765625" style="35" customWidth="1"/>
-    <col min="23" max="23" width="9.59765625" style="35"/>
-    <col min="24" max="24" width="10.69921875" style="35" customWidth="1"/>
-    <col min="25" max="25" width="9.59765625" style="35"/>
+    <col min="19" max="21" width="9.625" style="35"/>
+    <col min="22" max="22" width="8.625" style="35" customWidth="1"/>
+    <col min="23" max="23" width="9.625" style="35"/>
+    <col min="24" max="24" width="10.75" style="35" customWidth="1"/>
+    <col min="25" max="25" width="9.625" style="35"/>
     <col min="26" max="26" width="8" style="35" customWidth="1"/>
-    <col min="27" max="16384" width="9.59765625" style="35"/>
+    <col min="27" max="16384" width="9.625" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:34">
@@ -4611,7 +5395,7 @@
       </c>
       <c r="S3" s="34"/>
     </row>
-    <row r="4" spans="1:34" ht="18">
+    <row r="4" spans="1:34" ht="18.75">
       <c r="A4" s="35" t="s">
         <v>53</v>
       </c>
@@ -4668,7 +5452,7 @@
       </c>
       <c r="S4" s="36"/>
     </row>
-    <row r="5" spans="1:34" ht="18">
+    <row r="5" spans="1:34" ht="18.75">
       <c r="A5" s="96" t="s">
         <v>198</v>
       </c>
@@ -4765,7 +5549,7 @@
       <c r="AG7" s="93"/>
       <c r="AH7" s="93"/>
     </row>
-    <row r="8" spans="1:34" ht="36">
+    <row r="8" spans="1:34" ht="18">
       <c r="A8" s="41"/>
       <c r="B8" s="101" t="s">
         <v>22</v>
@@ -4810,7 +5594,7 @@
       <c r="AD8" s="41"/>
       <c r="AE8" s="41"/>
     </row>
-    <row r="9" spans="1:34" ht="18">
+    <row r="9" spans="1:34" ht="18.75">
       <c r="A9" s="35" t="s">
         <v>53</v>
       </c>
@@ -4845,7 +5629,7 @@
       <c r="R9" s="102"/>
       <c r="S9" s="36"/>
     </row>
-    <row r="10" spans="1:34" ht="18">
+    <row r="10" spans="1:34" ht="18.75">
       <c r="A10" s="96" t="s">
         <v>199</v>
       </c>
@@ -4892,7 +5676,7 @@
       <c r="AD10" s="41"/>
       <c r="AE10" s="41"/>
     </row>
-    <row r="11" spans="1:34" ht="18">
+    <row r="11" spans="1:34" ht="18.75">
       <c r="A11" s="96"/>
       <c r="B11" s="102" t="s">
         <v>52</v>
@@ -4937,7 +5721,7 @@
       <c r="AD11" s="41"/>
       <c r="AE11" s="41"/>
     </row>
-    <row r="12" spans="1:34" ht="18">
+    <row r="12" spans="1:34" ht="18.75">
       <c r="A12" s="96"/>
       <c r="B12" s="102" t="s">
         <v>188</v>
@@ -4982,7 +5766,7 @@
       <c r="AD12" s="41"/>
       <c r="AE12" s="41"/>
     </row>
-    <row r="13" spans="1:34" ht="14.4">
+    <row r="13" spans="1:34" ht="15">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -5015,7 +5799,7 @@
       <c r="AD13" s="41"/>
       <c r="AE13" s="41"/>
     </row>
-    <row r="14" spans="1:34" ht="14.4">
+    <row r="14" spans="1:34" ht="15">
       <c r="A14" s="41"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -5048,7 +5832,7 @@
       <c r="AD14" s="41"/>
       <c r="AE14" s="41"/>
     </row>
-    <row r="15" spans="1:34" ht="14.4">
+    <row r="15" spans="1:34" ht="15">
       <c r="A15" s="41"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
@@ -5081,7 +5865,7 @@
       <c r="AD15" s="41"/>
       <c r="AE15" s="41"/>
     </row>
-    <row r="16" spans="1:34" ht="14.4">
+    <row r="16" spans="1:34" ht="15">
       <c r="A16" s="96"/>
       <c r="B16" s="44"/>
       <c r="C16" s="99"/>
@@ -5114,7 +5898,7 @@
       <c r="AD16" s="41"/>
       <c r="AE16" s="41"/>
     </row>
-    <row r="17" spans="1:31" ht="14.4">
+    <row r="17" spans="1:31" ht="15">
       <c r="A17" s="41"/>
       <c r="B17" s="44"/>
       <c r="C17" s="99"/>
@@ -5147,7 +5931,7 @@
       <c r="AD17" s="41"/>
       <c r="AE17" s="41"/>
     </row>
-    <row r="18" spans="1:31" ht="14.4">
+    <row r="18" spans="1:31" ht="15">
       <c r="A18" s="41"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -5180,7 +5964,7 @@
       <c r="AD18" s="41"/>
       <c r="AE18" s="41"/>
     </row>
-    <row r="19" spans="1:31" ht="14.4">
+    <row r="19" spans="1:31" ht="15">
       <c r="A19" s="41"/>
       <c r="B19" s="49"/>
       <c r="C19" s="47"/>
@@ -5213,7 +5997,7 @@
       <c r="AD19" s="41"/>
       <c r="AE19" s="41"/>
     </row>
-    <row r="20" spans="1:31" s="40" customFormat="1" ht="14.4">
+    <row r="20" spans="1:31" s="40" customFormat="1" ht="15">
       <c r="A20" s="50"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -5246,7 +6030,7 @@
       <c r="AD20" s="50"/>
       <c r="AE20" s="50"/>
     </row>
-    <row r="21" spans="1:31" ht="14.4">
+    <row r="21" spans="1:31" ht="15">
       <c r="A21" s="41"/>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
@@ -5279,7 +6063,7 @@
       <c r="AD21" s="41"/>
       <c r="AE21" s="41"/>
     </row>
-    <row r="22" spans="1:31" ht="14.4">
+    <row r="22" spans="1:31" ht="15">
       <c r="A22" s="96"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -5312,7 +6096,7 @@
       <c r="AD22" s="41"/>
       <c r="AE22" s="41"/>
     </row>
-    <row r="23" spans="1:31" ht="14.4">
+    <row r="23" spans="1:31" ht="15">
       <c r="A23" s="96"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -5345,7 +6129,7 @@
       <c r="AD23" s="41"/>
       <c r="AE23" s="41"/>
     </row>
-    <row r="24" spans="1:31" ht="14.4">
+    <row r="24" spans="1:31" ht="15">
       <c r="A24" s="96"/>
       <c r="B24" s="83"/>
       <c r="C24" s="83"/>
@@ -5378,7 +6162,7 @@
       <c r="AD24" s="41"/>
       <c r="AE24" s="41"/>
     </row>
-    <row r="25" spans="1:31" ht="14.4">
+    <row r="25" spans="1:31" ht="15">
       <c r="A25" s="100"/>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -5411,7 +6195,7 @@
       <c r="AD25" s="41"/>
       <c r="AE25" s="41"/>
     </row>
-    <row r="26" spans="1:31" ht="14.4">
+    <row r="26" spans="1:31" ht="15">
       <c r="A26" s="86"/>
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
@@ -5444,7 +6228,7 @@
       <c r="AD26" s="41"/>
       <c r="AE26" s="41"/>
     </row>
-    <row r="27" spans="1:31" ht="14.4">
+    <row r="27" spans="1:31" ht="15">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -5477,7 +6261,7 @@
       <c r="AD27" s="41"/>
       <c r="AE27" s="41"/>
     </row>
-    <row r="28" spans="1:31" ht="14.4">
+    <row r="28" spans="1:31" ht="15">
       <c r="A28" s="41"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -5510,7 +6294,7 @@
       <c r="AD28" s="41"/>
       <c r="AE28" s="41"/>
     </row>
-    <row r="29" spans="1:31" ht="14.4">
+    <row r="29" spans="1:31" ht="15">
       <c r="A29" s="41"/>
       <c r="B29" s="57"/>
       <c r="C29" s="57"/>
@@ -5543,7 +6327,7 @@
       <c r="AD29" s="41"/>
       <c r="AE29" s="41"/>
     </row>
-    <row r="30" spans="1:31" ht="14.4">
+    <row r="30" spans="1:31" ht="15">
       <c r="A30" s="96"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -5576,7 +6360,7 @@
       <c r="AD30" s="41"/>
       <c r="AE30" s="41"/>
     </row>
-    <row r="31" spans="1:31" ht="14.4">
+    <row r="31" spans="1:31" ht="15">
       <c r="A31" s="96"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -5609,7 +6393,7 @@
       <c r="AD31" s="41"/>
       <c r="AE31" s="41"/>
     </row>
-    <row r="32" spans="1:31" ht="14.4">
+    <row r="32" spans="1:31" ht="15">
       <c r="A32" s="96"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -5642,7 +6426,7 @@
       <c r="AD32" s="41"/>
       <c r="AE32" s="41"/>
     </row>
-    <row r="33" spans="1:32" ht="14.4">
+    <row r="33" spans="1:32" ht="15">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -5675,7 +6459,7 @@
       <c r="AD33" s="41"/>
       <c r="AE33" s="41"/>
     </row>
-    <row r="34" spans="1:32" ht="14.4">
+    <row r="34" spans="1:32" ht="15">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>127</v>
@@ -5710,7 +6494,7 @@
       <c r="AD34" s="41"/>
       <c r="AE34" s="41"/>
     </row>
-    <row r="35" spans="1:32" ht="14.4">
+    <row r="35" spans="1:32" ht="15">
       <c r="A35" s="41"/>
       <c r="B35" s="42" t="s">
         <v>43</v>
@@ -5761,7 +6545,7 @@
       <c r="AD35" s="41"/>
       <c r="AE35" s="41"/>
     </row>
-    <row r="36" spans="1:32" ht="43.2">
+    <row r="36" spans="1:32" ht="45">
       <c r="A36" s="41" t="s">
         <v>53</v>
       </c>
@@ -5814,7 +6598,7 @@
       <c r="AD36" s="41"/>
       <c r="AE36" s="41"/>
     </row>
-    <row r="37" spans="1:32" ht="14.4">
+    <row r="37" spans="1:32" ht="15">
       <c r="A37" s="96" t="s">
         <v>141</v>
       </c>
@@ -5867,7 +6651,7 @@
       <c r="AD37" s="41"/>
       <c r="AE37" s="41"/>
     </row>
-    <row r="38" spans="1:32" ht="14.4">
+    <row r="38" spans="1:32" ht="15">
       <c r="A38" s="41" t="s">
         <v>68</v>
       </c>
@@ -5922,7 +6706,7 @@
       <c r="AD38" s="41"/>
       <c r="AE38" s="41"/>
     </row>
-    <row r="39" spans="1:32" ht="14.4">
+    <row r="39" spans="1:32" ht="15">
       <c r="A39" s="41"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -5955,7 +6739,7 @@
       <c r="AD39" s="41"/>
       <c r="AE39" s="41"/>
     </row>
-    <row r="40" spans="1:32" ht="14.4">
+    <row r="40" spans="1:32" ht="15">
       <c r="A40" s="41"/>
       <c r="B40" s="41" t="s">
         <v>128</v>
@@ -5990,7 +6774,7 @@
       <c r="AD40" s="41"/>
       <c r="AE40" s="41"/>
     </row>
-    <row r="41" spans="1:32" ht="14.4">
+    <row r="41" spans="1:32" ht="15">
       <c r="A41" s="41"/>
       <c r="B41" s="42" t="s">
         <v>70</v>
@@ -6083,7 +6867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="28.8">
+    <row r="42" spans="1:32" ht="30">
       <c r="A42" s="41" t="s">
         <v>53</v>
       </c>
@@ -6178,7 +6962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="14.4">
+    <row r="43" spans="1:32" ht="15">
       <c r="A43" s="96" t="s">
         <v>141</v>
       </c>
@@ -6273,7 +7057,7 @@
         <v>20230919</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="14.4">
+    <row r="44" spans="1:32" ht="15">
       <c r="A44" s="96" t="s">
         <v>141</v>
       </c>
@@ -6368,7 +7152,7 @@
         <v>20230816</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="14.4">
+    <row r="45" spans="1:32" ht="15">
       <c r="A45" s="96" t="s">
         <v>141</v>
       </c>
@@ -6466,7 +7250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="14.4">
+    <row r="46" spans="1:32" ht="15">
       <c r="A46" s="41" t="s">
         <v>76</v>
       </c>
@@ -6561,7 +7345,7 @@
         <v>20230818</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="14.4">
+    <row r="47" spans="1:32" ht="15">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -6599,7 +7383,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:34">
       <c r="B49" s="80" t="s">
         <v>60</v>
       </c>
@@ -6622,7 +7406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:34">
       <c r="A50" s="35" t="s">
         <v>53</v>
       </c>
@@ -6648,7 +7432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.4">
+    <row r="51" spans="1:34" ht="15">
       <c r="A51" s="41" t="s">
         <v>131</v>
       </c>
@@ -6674,7 +7458,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.4">
+    <row r="52" spans="1:34" ht="15">
       <c r="A52" s="41" t="s">
         <v>83</v>
       </c>
@@ -6702,6 +7486,486 @@
       <c r="I52" s="35" t="s">
         <v>134</v>
       </c>
+    </row>
+    <row r="57" spans="1:34" s="218" customFormat="1">
+      <c r="B57" s="218" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" s="218" customFormat="1" ht="36">
+      <c r="A58" s="218" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="219" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="219" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="219" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="219" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="219" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="219" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="219" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="219" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="219" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="219" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="219" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="219" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="219" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" s="219" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q58" s="219" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" s="219" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="220"/>
+    </row>
+    <row r="59" spans="1:34" s="218" customFormat="1" ht="18.75">
+      <c r="A59" s="221" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="222" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="222" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="222" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="223">
+        <v>37914</v>
+      </c>
+      <c r="I59" s="222" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="222" t="s">
+        <v>169</v>
+      </c>
+      <c r="K59" s="222" t="s">
+        <v>80</v>
+      </c>
+      <c r="L59" s="222" t="s">
+        <v>170</v>
+      </c>
+      <c r="M59" s="222" t="s">
+        <v>171</v>
+      </c>
+      <c r="N59" s="222" t="s">
+        <v>172</v>
+      </c>
+      <c r="O59" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" s="222" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q59" s="222" t="s">
+        <v>173</v>
+      </c>
+      <c r="R59" s="222" t="s">
+        <v>173</v>
+      </c>
+      <c r="S59" s="224"/>
+    </row>
+    <row r="60" spans="1:34" s="218" customFormat="1" ht="18.75">
+      <c r="A60" s="221" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="222" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="222" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="222" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" s="223">
+        <v>31413</v>
+      </c>
+      <c r="I60" s="222" t="s">
+        <v>168</v>
+      </c>
+      <c r="J60" s="222" t="s">
+        <v>169</v>
+      </c>
+      <c r="K60" s="222" t="s">
+        <v>79</v>
+      </c>
+      <c r="L60" s="222" t="s">
+        <v>170</v>
+      </c>
+      <c r="M60" s="222" t="s">
+        <v>171</v>
+      </c>
+      <c r="N60" s="222" t="s">
+        <v>172</v>
+      </c>
+      <c r="O60" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" s="222" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q60" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="R60" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="S60" s="224"/>
+    </row>
+    <row r="61" spans="1:34" s="218" customFormat="1" ht="18.75">
+      <c r="A61" s="221" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="222" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="222" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="222" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="222" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="H61" s="223">
+        <v>31413</v>
+      </c>
+      <c r="I61" s="222" t="s">
+        <v>168</v>
+      </c>
+      <c r="J61" s="222" t="s">
+        <v>169</v>
+      </c>
+      <c r="K61" s="222" t="s">
+        <v>79</v>
+      </c>
+      <c r="L61" s="222" t="s">
+        <v>170</v>
+      </c>
+      <c r="M61" s="222" t="s">
+        <v>171</v>
+      </c>
+      <c r="N61" s="222" t="s">
+        <v>172</v>
+      </c>
+      <c r="O61" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" s="222" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q61" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="R61" s="225" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" s="218" customFormat="1"/>
+    <row r="63" spans="1:34" ht="15" customHeight="1">
+      <c r="A63" s="218"/>
+      <c r="B63" s="226" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="226"/>
+      <c r="D63" s="226"/>
+      <c r="E63" s="226"/>
+      <c r="F63" s="226"/>
+      <c r="G63" s="226"/>
+      <c r="H63" s="226"/>
+      <c r="I63" s="226"/>
+      <c r="J63" s="226"/>
+      <c r="K63" s="226"/>
+      <c r="L63" s="226"/>
+      <c r="M63" s="226"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="93"/>
+      <c r="R63" s="93"/>
+      <c r="S63" s="93"/>
+      <c r="T63" s="93"/>
+      <c r="U63" s="93"/>
+      <c r="V63" s="93"/>
+      <c r="W63" s="93"/>
+      <c r="X63" s="93"/>
+      <c r="Y63" s="93"/>
+      <c r="Z63" s="93"/>
+      <c r="AA63" s="93"/>
+      <c r="AB63" s="93"/>
+      <c r="AC63" s="93"/>
+      <c r="AD63" s="93"/>
+      <c r="AE63" s="93"/>
+      <c r="AF63" s="93"/>
+      <c r="AG63" s="93"/>
+      <c r="AH63" s="93"/>
+    </row>
+    <row r="64" spans="1:34" ht="18">
+      <c r="A64" s="227"/>
+      <c r="B64" s="219" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="219" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="219" t="s">
+        <v>225</v>
+      </c>
+      <c r="F64" s="219" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="219" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" s="228"/>
+      <c r="I64" s="228"/>
+      <c r="J64" s="228"/>
+      <c r="K64" s="228"/>
+      <c r="L64" s="228"/>
+      <c r="M64" s="227"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="41"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="41"/>
+      <c r="X64" s="41"/>
+      <c r="Y64" s="41"/>
+      <c r="Z64" s="41"/>
+      <c r="AA64" s="41"/>
+      <c r="AB64" s="41"/>
+      <c r="AC64" s="41"/>
+      <c r="AD64" s="41"/>
+      <c r="AE64" s="41"/>
+    </row>
+    <row r="65" spans="1:31" ht="18.75">
+      <c r="A65" s="218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="222" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="222" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="222" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" s="222" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="222" t="s">
+        <v>182</v>
+      </c>
+      <c r="H65" s="223"/>
+      <c r="I65" s="222"/>
+      <c r="J65" s="222"/>
+      <c r="K65" s="222"/>
+      <c r="L65" s="222"/>
+      <c r="M65" s="222"/>
+      <c r="N65" s="102"/>
+      <c r="O65" s="102"/>
+      <c r="P65" s="102"/>
+      <c r="Q65" s="102"/>
+      <c r="R65" s="102"/>
+      <c r="S65" s="36"/>
+    </row>
+    <row r="66" spans="1:31" ht="18.75">
+      <c r="A66" s="218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" s="222" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="222" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="222" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" s="222" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" s="222" t="s">
+        <v>182</v>
+      </c>
+      <c r="H66" s="223"/>
+      <c r="I66" s="222"/>
+      <c r="J66" s="222"/>
+      <c r="K66" s="222"/>
+      <c r="L66" s="222"/>
+      <c r="M66" s="222"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="102"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="102"/>
+      <c r="R66" s="102"/>
+      <c r="S66" s="36"/>
+    </row>
+    <row r="67" spans="1:31" ht="18.75">
+      <c r="A67" s="221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="222" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="222" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="222" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="222" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" s="222" t="s">
+        <v>184</v>
+      </c>
+      <c r="G67" s="222" t="s">
+        <v>185</v>
+      </c>
+      <c r="H67" s="229"/>
+      <c r="I67" s="230"/>
+      <c r="J67" s="230"/>
+      <c r="K67" s="230"/>
+      <c r="L67" s="230"/>
+      <c r="M67" s="227"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="41"/>
+      <c r="V67" s="41"/>
+      <c r="W67" s="41"/>
+      <c r="X67" s="41"/>
+      <c r="Y67" s="41"/>
+      <c r="Z67" s="41"/>
+      <c r="AA67" s="41"/>
+      <c r="AB67" s="41"/>
+      <c r="AC67" s="41"/>
+      <c r="AD67" s="41"/>
+      <c r="AE67" s="41"/>
+    </row>
+    <row r="68" spans="1:31" ht="18.75">
+      <c r="A68" s="221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="222" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="222" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="222" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="222" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" s="222" t="s">
+        <v>187</v>
+      </c>
+      <c r="H68" s="229"/>
+      <c r="I68" s="230"/>
+      <c r="J68" s="230"/>
+      <c r="K68" s="230"/>
+      <c r="L68" s="230"/>
+      <c r="M68" s="227"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="41"/>
+      <c r="X68" s="41"/>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="41"/>
+      <c r="AA68" s="41"/>
+      <c r="AB68" s="41"/>
+      <c r="AC68" s="41"/>
+      <c r="AD68" s="41"/>
+      <c r="AE68" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
